--- a/Datasets/UCLASS_dataset/UCLASS.xlsx
+++ b/Datasets/UCLASS_dataset/UCLASS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1946">
   <si>
     <t>Name</t>
   </si>
@@ -3943,15 +3943,6 @@
     <t xml:space="preserve">doing my AI </t>
   </si>
   <si>
-    <t xml:space="preserve">which is a CH CH CHANGE â€˜cause itâ€™s normally three. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">got loads of work that Iâ€™ve got </t>
-  </si>
-  <si>
-    <t xml:space="preserve">but we've got this teacher whoâ€™s so boring.He could </t>
-  </si>
-  <si>
     <t xml:space="preserve">ah you just are </t>
   </si>
   <si>
@@ -3961,9 +3952,6 @@
     <t xml:space="preserve">W{block} </t>
   </si>
   <si>
-    <t xml:space="preserve">Erm Artsâ€™s quite fun </t>
-  </si>
-  <si>
     <t xml:space="preserve">Erm IT </t>
   </si>
   <si>
@@ -3973,15 +3961,6 @@
     <t xml:space="preserve">and U OUTPUTS of computers and everything. </t>
   </si>
   <si>
-    <t xml:space="preserve">That bitâ€™s a bit too technical really. </t>
-  </si>
-  <si>
-    <t>I I ITâ€™S fine. Erm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm at SS SS AINT SAINT Johnâ€™s now: erm </t>
-  </si>
-  <si>
     <t>LEVELS. Erm I'm doing FFFFOUR:</t>
   </si>
   <si>
@@ -3991,15 +3970,9 @@
     <t>F{x18}I{block} PHYSICS:</t>
   </si>
   <si>
-    <t xml:space="preserve">all of which I can't stand except Art: but thatâ€™s still </t>
-  </si>
-  <si>
     <t>to have done by the start of term: which is a bit worrying.</t>
   </si>
   <si>
-    <t>Erm Physics IS ISNâ€™T that bad:</t>
-  </si>
-  <si>
     <t>sort of SSSSSSSEMI-sleeping during every single class: because you honestly can't stay awake.</t>
   </si>
   <si>
@@ -4027,18 +4000,9 @@
     <t xml:space="preserve">at the moment: so that's quite </t>
   </si>
   <si>
-    <t xml:space="preserve">W W W WORRYING: seeing as weâ€™ve got exams coming up. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">though: â€˜cause it's not really that intense: so </t>
-  </si>
-  <si>
     <t xml:space="preserve">erm it's quite good: </t>
   </si>
   <si>
-    <t xml:space="preserve">although Iâ€™ve still got to do quite a bit on that: certainly. </t>
-  </si>
-  <si>
     <t>that's: up and down: it C CAN be OK:</t>
   </si>
   <si>
@@ -4054,12 +4018,6 @@
     <t xml:space="preserve">SS about these </t>
   </si>
   <si>
-    <t>four turtles| yeah| and THEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were in their house| AND then </t>
-  </si>
-  <si>
     <t xml:space="preserve">April came and she had stuff for the </t>
   </si>
   <si>
@@ -4069,84 +4027,24 @@
     <t xml:space="preserve">she gave all of them </t>
   </si>
   <si>
-    <t xml:space="preserve">THEIR presents| then then she said she </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOUND this| it's like this </t>
-  </si>
-  <si>
-    <t>egg timer and it was from Japan|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and it was like an antique| and </t>
-  </si>
-  <si>
     <t xml:space="preserve">then SH SH SH and then </t>
   </si>
   <si>
-    <t xml:space="preserve">er she blew it |THEN| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">we saw into Japan| and then </t>
-  </si>
-  <si>
-    <t xml:space="preserve">it W but it was a long time ago| and THEN| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">er the baddyâ€™s son </t>
-  </si>
-  <si>
-    <t xml:space="preserve">found it and um she| â€˜CAUSE| you </t>
-  </si>
-  <si>
-    <t xml:space="preserve">know on the egg timer there was some writing| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and if you said it you would| THE person who had the other one would </t>
-  </si>
-  <si>
-    <t xml:space="preserve">go in the  past| and THE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">one in the past come to the future and then| </t>
-  </si>
-  <si>
     <t xml:space="preserve">BUT their clothes </t>
   </si>
   <si>
-    <t xml:space="preserve">STOOD there yeah| </t>
-  </si>
-  <si>
     <t xml:space="preserve">and then the the turtles had to GO </t>
   </si>
   <si>
     <t xml:space="preserve">back into the past and and get April </t>
   </si>
   <si>
-    <t xml:space="preserve">back| but but er </t>
-  </si>
-  <si>
     <t xml:space="preserve">you know when </t>
   </si>
   <si>
-    <t xml:space="preserve">they got there| THEY were having </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a battle| and then </t>
-  </si>
-  <si>
     <t xml:space="preserve">Michelangelo he got on his </t>
   </si>
   <si>
-    <t xml:space="preserve">horse the wrong way| and then he went into </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAA PLI| I got my playstation in the summer </t>
-  </si>
-  <si>
-    <t>holidays| yeah AA AND  W when you open it|</t>
-  </si>
-  <si>
     <t xml:space="preserve">IT TAKES CD   IT TAKES CD games. </t>
   </si>
   <si>
@@ -4156,84 +4054,18 @@
     <t>And it's got twenty players in it and they give you ten.</t>
   </si>
   <si>
-    <t>And| you have to get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the other twenty| and um you have to get the other ten. </t>
-  </si>
-  <si>
-    <t>And I've got nineteen of them so I need one more| but</t>
-  </si>
-  <si>
     <t>he's really hard to get.</t>
   </si>
   <si>
-    <t xml:space="preserve">SA and   DI is got| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">um| it's got lots| I think it's got five </t>
-  </si>
-  <si>
-    <t xml:space="preserve">different stages| THEREâ€™S THEREâ€™S time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">attack| there's survival| there's </t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice mode| there's um </t>
-  </si>
-  <si>
-    <t xml:space="preserve">freeze mode| there's um option mode </t>
-  </si>
-  <si>
-    <t>and there's arcade mode|</t>
-  </si>
-  <si>
-    <t>there's six. And um|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm looking forward to this game in about a month| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and it's called Batman and Robin.  Um| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think it's a two player game.  And um and|um| </t>
-  </si>
-  <si>
     <t>I'm looking forward to that and after that</t>
   </si>
   <si>
-    <t xml:space="preserve">I'm getting A A different game| it's called </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASHOAW ASOAWGX and I it's| </t>
-  </si>
-  <si>
-    <t>you call it| ITâ€™S A K  ITâ€™S A shooting game I think it's two player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeah| when I get it yeah I'm going to be playing with it </t>
-  </si>
-  <si>
     <t xml:space="preserve">a lot. Uh </t>
   </si>
   <si>
     <t xml:space="preserve">and M my uncle he got a </t>
   </si>
   <si>
-    <t>Nintendo 64 which| and he's got four games.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He's got Super Mario Land 64| </t>
-  </si>
-  <si>
-    <t>he's got Star Wars| he's got</t>
-  </si>
-  <si>
-    <t>Lilac Wars and he's got| I can't riMEM|</t>
-  </si>
-  <si>
     <t xml:space="preserve">TODAY at school um </t>
   </si>
   <si>
@@ -4249,9 +4081,6 @@
     <t>what um eye colour have you got and</t>
   </si>
   <si>
-    <t>WHAT WHAT colour hair|</t>
-  </si>
-  <si>
     <t xml:space="preserve">HOW many </t>
   </si>
   <si>
@@ -4327,138 +4156,36 @@
     <t>I think it's uh it's a it's a</t>
   </si>
   <si>
-    <t>beetle I CANâ€™T I CANâ€™T remem</t>
-  </si>
-  <si>
     <t xml:space="preserve">ber and um </t>
   </si>
   <si>
     <t>and it could talk but it wasn't a real beetle</t>
   </si>
   <si>
-    <t xml:space="preserve">Last week| last week we got to play football. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was really nice| and then our team lost. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uhm| I think it was five-seven.  And then| </t>
-  </si>
-  <si>
-    <t>and then uhm do you see the other the next| uhm|</t>
-  </si>
-  <si>
-    <t>the first day we were trying for our greens| I got my</t>
-  </si>
-  <si>
-    <t>green| but the most hardest is to get your</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red| but| uhm| you see </t>
-  </si>
-  <si>
-    <t>my sister|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they said that I can't get my green| I will never get my green </t>
-  </si>
-  <si>
-    <t>and then I did| I showed them that I did. And then uhm|</t>
-  </si>
-  <si>
-    <t>and then I was| I was trying trying to get my blue| we were having a test</t>
-  </si>
-  <si>
-    <t>to get a blue| but I failed| I failed| but|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">but uhm| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I didn't mind| anyway| I didn't mind| because I got my green. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And| uhm| </t>
-  </si>
-  <si>
     <t xml:space="preserve">and that's it. </t>
   </si>
   <si>
     <t xml:space="preserve">({T2} Tell me about your school). </t>
   </si>
   <si>
-    <t>School. Uhm| you see our school|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you see now| at our school I'm in year six| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and uhm| um </t>
-  </si>
-  <si>
-    <t>I like to play football at school| and basketball|</t>
-  </si>
-  <si>
-    <t>and uhm| you see you see our foot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you see our footballers playing against the year five| year six </t>
-  </si>
-  <si>
-    <t>versus year five| and then| and then| and then|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the score was 2-1| we beat them| and </t>
-  </si>
-  <si>
     <t>I um must ?. When people are</t>
   </si>
   <si>
-    <t>lining out Iâ€™ll have to tell them to stop talking and jump|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeah| and uhm </t>
-  </si>
-  <si>
     <t>you see literacy is more better than maths.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um| U I go to Trinthoe School| </t>
-  </si>
-  <si>
-    <t>and I like doing football|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">art| design| technology| maths and| </t>
-  </si>
-  <si>
     <t xml:space="preserve">lots of other subjects. </t>
   </si>
   <si>
-    <t>My best hobby is football|</t>
-  </si>
-  <si>
     <t xml:space="preserve">I scored 18 goals um </t>
   </si>
   <si>
-    <t>er last year| and.</t>
-  </si>
-  <si>
     <t>Er.</t>
   </si>
   <si>
     <t xml:space="preserve">(Interviewer): Tell me about </t>
   </si>
   <si>
-    <t xml:space="preserve">your friends at schools| your teachers| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">things you like to do at school. Yeah. {Interviewer}. My best friendâ€™s XXXX XXXXXX. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Went round to his house| um| </t>
-  </si>
-  <si>
     <t xml:space="preserve">{block}about two days ago. </t>
   </si>
   <si>
@@ -4468,9 +4195,6 @@
     <t>what did you do there</t>
   </si>
   <si>
-    <t xml:space="preserve">We wernt out on our bikes| </t>
-  </si>
-  <si>
     <t xml:space="preserve">Um. </t>
   </si>
   <si>
@@ -4483,162 +4207,66 @@
     <t>Lost World is my best film.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um| </t>
-  </si>
-  <si>
     <t xml:space="preserve">dinosaurs. (I): What happened? </t>
   </si>
   <si>
-    <t>(S): U itâ€™s sequel to Jrassic Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNNNN| there some dinosaurs escaped </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and| well actually came back. </t>
-  </si>
-  <si>
     <t xml:space="preserve">(I): What were they trying to do? </t>
   </si>
   <si>
-    <t>(S): Well they trying to catch them and|</t>
-  </si>
-  <si>
     <t>and going put them back um in the right place.</t>
   </si>
   <si>
-    <t xml:space="preserve">(I): How do they| what| how do they discover? </t>
-  </si>
-  <si>
     <t>(S): They walking through the forest and they SSSS{block}-</t>
   </si>
   <si>
     <t>heard noises and saw them.</t>
   </si>
   <si>
-    <t>(I): Right| OK| that's great.</t>
-  </si>
-  <si>
     <t>um.About</t>
   </si>
   <si>
     <t>{block}IT was quite scary</t>
   </si>
   <si>
-    <t xml:space="preserve">South Park| the Simpsons| Friends| </t>
-  </si>
-  <si>
-    <t>Eastenders| and|</t>
-  </si>
-  <si>
     <t>and Buffy the Vampire Slayer.</t>
   </si>
   <si>
     <t xml:space="preserve">And </t>
   </si>
   <si>
-    <t>{block}MY favourite hobbies are skating|</t>
-  </si>
-  <si>
     <t>{block}WHAT I mean by skating is</t>
   </si>
   <si>
-    <t>ramps and| things like that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And I play football| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">skateboarding| em cricket| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hockey| swimming| basketball| and </t>
-  </si>
-  <si>
     <t xml:space="preserve">a lot of other sports. </t>
   </si>
   <si>
-    <t>I have got a playstation| and I've got five games.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiro The Dragon| Heart Of Darkness| </t>
-  </si>
-  <si>
-    <t>Tackle Two Touring Cars|</t>
-  </si>
-  <si>
-    <t>A AND Aduad World Abeâ€™s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exodus| and </t>
-  </si>
-  <si>
     <t>Cool Boarder Three.</t>
   </si>
   <si>
-    <t xml:space="preserve">I have a pet dog| called Buddy| and </t>
-  </si>
-  <si>
     <t>two pet goldfish called jaws and</t>
   </si>
   <si>
     <t xml:space="preserve">um </t>
   </si>
   <si>
-    <t xml:space="preserve">and Flannel| or something like that| I I can't remember. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Erm. </t>
   </si>
   <si>
     <t xml:space="preserve">I HAVE </t>
   </si>
   <si>
-    <t>A HA HAVE A HAVE A large bedroom|WI WITH a hi-fi|</t>
-  </si>
-  <si>
-    <t>a drum kit| and I play the viola|</t>
-  </si>
-  <si>
     <t xml:space="preserve">and drums as well. </t>
   </si>
   <si>
-    <t>I used to play the piano| grade one|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and then I stopped after grade one| â€˜cause IT IT </t>
-  </si>
-  <si>
     <t>WAS getting a bit tedious. Erm.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um| I came up on the train to here. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er we got on the train at Sutton| and it </t>
-  </si>
-  <si>
-    <t xml:space="preserve">took us ages| â€˜cause we got on the slow train to </t>
-  </si>
-  <si>
     <t>um to Victoria. Then er</t>
   </si>
   <si>
     <t xml:space="preserve">we got on the underground train to um to Warren </t>
   </si>
   <si>
-    <t xml:space="preserve">Street| and we got off the train at Warren Street </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeah| um. Erm| then we walked from Warren </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street no we didn't| um. WE GOT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON WE GOT ON the Northern Line| and we got on the train to </t>
-  </si>
-  <si>
     <t xml:space="preserve">Goodge Street. ANDSSSSSS UM </t>
   </si>
   <si>
@@ -4654,9 +4282,6 @@
     <t>I yesterday I went in to Oxford</t>
   </si>
   <si>
-    <t>Street on the bus. Erm| did some Christmas shopping|</t>
-  </si>
-  <si>
     <t xml:space="preserve">and then came MU- AFTER </t>
   </si>
   <si>
@@ -4672,141 +4297,30 @@
     <t xml:space="preserve">I'm going to do some more shopping. </t>
   </si>
   <si>
-    <t>Because Iâ€™VE Iâ€™VE been given 10 pounds to get a Christmas present with myself|</t>
-  </si>
-  <si>
     <t>by um I think it's an uncle and auntie.</t>
   </si>
   <si>
-    <t xml:space="preserve">And| I don't know what I'm gonna get| and </t>
-  </si>
-  <si>
-    <t xml:space="preserve">er| and then we're gonna go </t>
-  </si>
-  <si>
-    <t>home. â€˜Cause our dogâ€™s at home and HE WILL BE HE WILL getting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lonely. Home um| and| </t>
-  </si>
-  <si>
-    <t>and u| and so we have to go and feed my other two</t>
-  </si>
-  <si>
     <t>before used to go er {unintelligible}.</t>
   </si>
   <si>
-    <t>I donâ€™t want to do that.</t>
-  </si>
-  <si>
-    <t>Because have to clean it up. And thatâ€™s|</t>
-  </si>
-  <si>
-    <t>itâ€™s not very nice.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A U U AND I'll B BE talking about er what is the </t>
   </si>
   <si>
     <t xml:space="preserve">difference BETWEEN BETWEEN er cricket and football. </t>
   </si>
   <si>
-    <t>A AND West Indies were in dire straits yesterday|</t>
-  </si>
-  <si>
     <t>and they had thirty one for six wickets.</t>
   </si>
   <si>
-    <t>And for the last few years| the West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indies er team HHHHHAS been declining in form| </t>
-  </si>
-  <si>
-    <t>like for instance theyâ€™ve beaten by Pakistan three nil|</t>
-  </si>
-  <si>
-    <t>beaten by England| er</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaten by England in the last test match| but they </t>
-  </si>
-  <si>
-    <t>still won it| we still won the test| three two. THEY GOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B- THEY BEATEN by South Africa three nil| and they got beaten by </t>
-  </si>
-  <si>
-    <t>who else| er I'm not sure now. Oh| u um|</t>
-  </si>
-  <si>
-    <t>um| Iâ€™m back to football now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er| I support Wimbledon| er </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A AND Wimbledon u u yeah a bit more money| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and er| we're only tenth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and the worst position was fifteenth|{block}LAST season| </t>
-  </si>
-  <si>
-    <t>and but er for the last few SEEEEEEEEEEEE EEEEEEROUT weâ€™ve been selling some good</t>
-  </si>
-  <si>
-    <t>players like Vinnie Jones| but| u WE WE wanted to sell for years|</t>
-  </si>
-  <si>
     <t>er for SSSSSSSSIXSHU- SIXHUNDREDAND</t>
   </si>
   <si>
-    <t xml:space="preserve">FIFTY thousand| er WE WE </t>
-  </si>
-  <si>
-    <t>sold er u I see| Homesworth|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two million to Bolton| </t>
-  </si>
-  <si>
-    <t>and for the last few years| er so it was probably</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last week| {block}I just </t>
-  </si>
-  <si>
-    <t xml:space="preserve">heard that West Indies were beaten five nil| BY </t>
-  </si>
-  <si>
     <t xml:space="preserve">BY Arsenal last season. This season were beaten by the bottom </t>
   </si>
   <si>
-    <t>four| all three were beaten by er</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NNNOTTINGHAM Forest| three one| Blackburn </t>
-  </si>
-  <si>
-    <t>three one| Southampton two nil| and Charlton three one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{T1} and  I  normally  bat  number  FIVE  to  seven  yeah|  and  the  next  thing  </t>
-  </si>
-  <si>
-    <t>in|  think  it's  on  Saturday no Saturday or Sunday</t>
-  </si>
-  <si>
     <t xml:space="preserve">is the (?). And er I  do  German  at  </t>
   </si>
   <si>
-    <t xml:space="preserve">school  it's  not  very  good|  but  it's  hard  and  we're  doing </t>
-  </si>
-  <si>
     <t xml:space="preserve">like THINGS  about  conversations  in German and  like  yeah </t>
   </si>
   <si>
@@ -4819,84 +4333,21 @@
     <t xml:space="preserve">Yeah  and uh um my  holiday  so  far  </t>
   </si>
   <si>
-    <t xml:space="preserve">has  been  okay  so  far|  yeah  its been a  little  bit  boring  all  I've  been  doing  is  like  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">just  like  err  (what you laughing at?) like watching  TV| </t>
-  </si>
-  <si>
-    <t>playing  computer  games|  music  and  stuff|  seeing  that.</t>
-  </si>
-  <si>
-    <t>Iâ€™ve been| Iâ€™ve  been  bowling and  Iâ€™ve er got  a  friend's  birthday  on  Tues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day|  yeah|  so  I'm  hoping  to  go  down  bowling|  and  then  go </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nandoâ€™s  to  have  a  bit  of  something  to  eat.  Yeah| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">and er what else do I do?  At  school|  </t>
-  </si>
-  <si>
     <t xml:space="preserve">my  favourite subject's  probably  PE  at  the  moment  and  my  PE  teacher er </t>
   </si>
   <si>
-    <t xml:space="preserve">he he's  leaving  this  year|  so  we  should  have  a  new  PE  teacher| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeah  and  I  don't  like  my  science  teacher - because he's  always  shouting  and  stuff | </t>
-  </si>
-  <si>
-    <t>things like that| I  don't  like  him.  His  name his nameâ€™s  Mr  Scantlebury| don't  like  him.</t>
-  </si>
-  <si>
     <t xml:space="preserve">And  I had  Parents  evening  a  couple of  weeks  ago  he  was  OK </t>
   </si>
   <si>
-    <t>but  Geography  was  a  bit  bad  as  well|  Geography was  a  bit  bad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I  missed  out  a  couple  of  homework|  my  Mum </t>
-  </si>
-  <si>
     <t xml:space="preserve">wasn't  very  pleased  but. Oh like  and my  Dad </t>
   </si>
   <si>
-    <t>really  likes  cricket  yeah| so and he  got  me  into  cricket  yeah  and  he  joined  me  up  to</t>
-  </si>
-  <si>
-    <t>Hornsea think itâ€™s sometime  last  month|  yeah|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I just go| I  just  go  to  training  in  the  morning  yeah|  indoors. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We  do  indoor|  and  outdoor  yeah|  and  like use like the  PROPER  </t>
-  </si>
-  <si>
-    <t>ball  use  a  ball  yeah|  and  got  some  cricket  stuff  upstairs  in  my  shelf  yeah|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(?)  yeah and  last  time  I  played  for  the  school|  yeah| </t>
-  </si>
-  <si>
     <t>WE  beat er Northumberland  Park</t>
   </si>
   <si>
-    <t xml:space="preserve">yeah|  ({T2} How much?) er I thinks itâ€™s </t>
-  </si>
-  <si>
     <t xml:space="preserve">75 to 110. Yeah we beat them badly </t>
   </si>
   <si>
-    <t>yeah well. We beat White Hart Lane as well er| theyâ€™re shabby.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I PLAY FOR A| I PLAY FOR A </t>
-  </si>
-  <si>
     <t>FA A  F A FA FAW A FA AI FF football</t>
   </si>
   <si>
@@ -4906,21 +4357,9 @@
     <t xml:space="preserve">And we had a tournament J J J JER J J JER JA just </t>
   </si>
   <si>
-    <t xml:space="preserve">two days ago| AA AND AND WEE DIN   WI unfortunately </t>
-  </si>
-  <si>
     <t xml:space="preserve">WE WE didn't GO GO through TER TO THE TO THE quarter finals. </t>
   </si>
   <si>
-    <t xml:space="preserve">BUT THEN WA AR BUT THEN {blocks} OTHER {blocks} THE OTHER team| </t>
-  </si>
-  <si>
-    <t>WHICH IS WHICH IS team b| W {blocks} W WA WA went through| and they</t>
-  </si>
-  <si>
-    <t xml:space="preserve">won the finals.  Um| </t>
-  </si>
-  <si>
     <t>now let's talk about K K KRER</t>
   </si>
   <si>
@@ -4933,9 +4372,6 @@
     <t>TEI T TEI T TEI TEI    TEI test between</t>
   </si>
   <si>
-    <t>um England and New Zealand| I I I</t>
-  </si>
-  <si>
     <t xml:space="preserve">I I I   IIIngland won with </t>
   </si>
   <si>
@@ -4945,45 +4381,18 @@
     <t xml:space="preserve">a to ER one I think. </t>
   </si>
   <si>
-    <t xml:space="preserve">And er| and DH THE first game </t>
-  </si>
-  <si>
     <t xml:space="preserve">N New Zealand won.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Um| what else can we talk </t>
-  </si>
-  <si>
     <t xml:space="preserve">about  now? M </t>
   </si>
   <si>
-    <t>hobbies. Um| my</t>
-  </si>
-  <si>
-    <t>hobbies are| I've told you that already but I'll say it again.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um| swimming| wrestling| </t>
-  </si>
-  <si>
     <t xml:space="preserve">um playing F F F F F F F F F F F football </t>
   </si>
   <si>
-    <t>and playing KR cricket. Um|</t>
-  </si>
-  <si>
     <t xml:space="preserve">are two minutes over yet? </t>
   </si>
   <si>
-    <t>Alright| m|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my family| um </t>
-  </si>
-  <si>
-    <t>right| my dad HHHHHe is</t>
-  </si>
-  <si>
     <t>FAW FA forty four AND AND he</t>
   </si>
   <si>
@@ -4999,21 +4408,6 @@
     <t>THIS year. And I want to be a FFFFFFOOGX {blocks}FFFFFOO{ blocks}</t>
   </si>
   <si>
-    <t>Aâ€™baller WE WHEN I grow up. And</t>
-  </si>
-  <si>
-    <t>um um| and if I ain't a FOOGX{block}</t>
-  </si>
-  <si>
-    <t>FOOT{block}BOO baller rather be a gambler|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a RESHstler or| </t>
-  </si>
-  <si>
-    <t>what was that other one? UM|</t>
-  </si>
-  <si>
     <t xml:space="preserve">DA DA A A computer </t>
   </si>
   <si>
@@ -5035,21 +4429,12 @@
     <t>IE{block}IEgeware.  And</t>
   </si>
   <si>
-    <t>um. And I've got three friends at WWWWWWeston| ONEâ€™S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONE is called James Elgar| one is </t>
-  </si>
-  <si>
     <t xml:space="preserve">called Joe Thatcher and the other one's called Lee Reeford. </t>
   </si>
   <si>
     <t xml:space="preserve">Lee REE Lee REE Reeford was in my clas </t>
   </si>
   <si>
-    <t xml:space="preserve">s at Wer{block}pole primary| </t>
-  </si>
-  <si>
     <t>AND J A AND :ames EL{block}</t>
   </si>
   <si>
@@ -5065,24 +4450,15 @@
     <t>Reeford HAD {block}HAD a football FA {block}team there</t>
   </si>
   <si>
-    <t>| and SO SO he WENT WEN {block} E-ENT  off</t>
-  </si>
-  <si>
     <t>WA off with them.</t>
   </si>
   <si>
     <t xml:space="preserve">So I WAS WAS alone </t>
   </si>
   <si>
-    <t xml:space="preserve">until I saw JAI JAI James Elgar| and Joe Thatcher. </t>
-  </si>
-  <si>
     <t xml:space="preserve">And Joe FAAT {block}AA AA </t>
   </si>
   <si>
-    <t>AA AA AA AA AA AA AA AA AA AA AA cherâ€™s  BRU {block} brother</t>
-  </si>
-  <si>
     <t xml:space="preserve">{T1} FAVOURITE er COMPUTER game is called </t>
   </si>
   <si>
@@ -5125,9 +4501,6 @@
     <t xml:space="preserve">basic foot solider. There </t>
   </si>
   <si>
-    <t xml:space="preserve">are different levels OF TECHNOLOGY| </t>
-  </si>
-  <si>
     <t xml:space="preserve">level three being the highest. </t>
   </si>
   <si>
@@ -5203,18 +4576,9 @@
     <t xml:space="preserve">called </t>
   </si>
   <si>
-    <t>I  like  to  play  football  for  fun|  and  because</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I  like  to  play  for  fun|  I  normally  </t>
-  </si>
-  <si>
     <t>BE  on  the  football  team  and</t>
   </si>
   <si>
-    <t xml:space="preserve">one  thing  I  like  to  be  on  the  football  team|  because </t>
-  </si>
-  <si>
     <t xml:space="preserve">you  have  to  LISTEN  and  hear  what  the  coach  is  </t>
   </si>
   <si>
@@ -5227,9 +4591,6 @@
     <t xml:space="preserve">my  favourite  SPORT is  TO  um </t>
   </si>
   <si>
-    <t xml:space="preserve">SWIM  because  when  you  swim|  you  get  </t>
-  </si>
-  <si>
     <t xml:space="preserve">more  ENERGY  in  you  and  after  </t>
   </si>
   <si>
@@ -5245,21 +4606,12 @@
     <t>er I  don't  know  what  to  say  about</t>
   </si>
   <si>
-    <t xml:space="preserve">football  team| I  like  any  team! </t>
-  </si>
-  <si>
     <t xml:space="preserve"> {Prompted by interviewer}  My  best  </t>
   </si>
   <si>
-    <t>place  I  ever  been|  was  to  er</t>
-  </si>
-  <si>
     <t>LEGO</t>
   </si>
   <si>
-    <t>LAND.  After  we  WENT  there|</t>
-  </si>
-  <si>
     <t xml:space="preserve">the  next  holiday  we  went  to </t>
   </si>
   <si>
@@ -5269,9 +4621,6 @@
     <t>Easter  holidays  we  went  to  Thorpe</t>
   </si>
   <si>
-    <t xml:space="preserve">Park  in  the  MORNING  and  we 	 </t>
-  </si>
-  <si>
     <t>CAME  back  something  to  nine  in  the  afternoon.</t>
   </si>
   <si>
@@ -5281,9 +4630,6 @@
     <t xml:space="preserve">fun.  My  favourite  ride  was  the  </t>
   </si>
   <si>
-    <t xml:space="preserve">scary  ride|  where  you  have  to  go  ON  </t>
-  </si>
-  <si>
     <t>this  ride  and  you  have  to  go  upside  down.</t>
   </si>
   <si>
@@ -5371,9 +4717,6 @@
     <t>ES EXPECTED.</t>
   </si>
   <si>
-    <t xml:space="preserve">um| af </t>
-  </si>
-  <si>
     <t xml:space="preserve">T TER that we W WENT home and </t>
   </si>
   <si>
@@ -5386,18 +4729,9 @@
     <t xml:space="preserve">couldn't watch it because it was too  </t>
   </si>
   <si>
-    <t xml:space="preserve">Um| really| last holiday </t>
-  </si>
-  <si>
     <t>I went to America to see my auntie and uncle.</t>
   </si>
   <si>
-    <t>And um| she has</t>
-  </si>
-  <si>
-    <t>a cat and three dogs| it SSSO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Awiming pool.  And </t>
   </si>
   <si>
@@ -5410,54 +4744,24 @@
     <t>over there um the ice-cream M{x6} MA MELTED.</t>
   </si>
   <si>
-    <t xml:space="preserve">But my F FAVOUROTE part is when we went to this um| </t>
-  </si>
-  <si>
     <t xml:space="preserve">water park and there was this big wave machine </t>
   </si>
   <si>
     <t>and one wave came every er</t>
   </si>
   <si>
-    <t>one second|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">er I mean| I mean every five M M </t>
-  </si>
-  <si>
     <t xml:space="preserve">MINUTES and it was a big tidal wave and it went over my </t>
   </si>
   <si>
-    <t xml:space="preserve">dad's head| so it was really tall. </t>
-  </si>
-  <si>
-    <t>Um| I| there was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">once when I was taking Laddy| a dog| out for </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a walk and we| and then we saw this big </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hornet| well it wasn't a hornet| </t>
-  </si>
-  <si>
     <t>it was CH TWICE as big as a hornet.  And it</t>
   </si>
   <si>
     <t xml:space="preserve">landed right in F F FRONT of  </t>
   </si>
   <si>
-    <t xml:space="preserve">LLLADDY| the dog| and we um| I </t>
-  </si>
-  <si>
     <t xml:space="preserve">just ran up the hill and LL LADDY just sat there </t>
   </si>
   <si>
-    <t xml:space="preserve">puzzled.  Um| </t>
-  </si>
-  <si>
     <t>when I got to the car park I realised I hadn't had</t>
   </si>
   <si>
@@ -5470,9 +4774,6 @@
     <t xml:space="preserve">bravely down there and get him again. </t>
   </si>
   <si>
-    <t>Um| we also SSAwam in the lake.</t>
-  </si>
-  <si>
     <t>noise</t>
   </si>
   <si>
@@ -5497,9 +4798,6 @@
     <t>a guide dog and N animal worker vet person</t>
   </si>
   <si>
-    <t>Iâ€™m N NOT sure if this true or not</t>
-  </si>
-  <si>
     <t>she's a um</t>
   </si>
   <si>
@@ -5542,15 +4840,9 @@
     <t xml:space="preserve">N NINE months and I'm really </t>
   </si>
   <si>
-    <t>and she said wâ€™m going to have it in uh</t>
-  </si>
-  <si>
     <t xml:space="preserve">that that I had a baby C COUSIN </t>
   </si>
   <si>
-    <t xml:space="preserve">when I um| w um knew </t>
-  </si>
-  <si>
     <t>weeks ago I couldn't I was S SPEECHLESS</t>
   </si>
   <si>
@@ -5575,123 +4867,42 @@
     <t>um quite a lot of sports most sports really but my favourite is tennis.</t>
   </si>
   <si>
-    <t>I play quite a lot in the week| and all the time on the weekends.</t>
-  </si>
-  <si>
-    <t>At school they don't really do much tennis|</t>
-  </si>
-  <si>
     <t xml:space="preserve">but (ER) at school they do um wide variety of </t>
   </si>
   <si>
-    <t xml:space="preserve">sports| such as football| rugby| athletics| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">an cricket. I'm in all those teams| apart from athletics </t>
-  </si>
-  <si>
     <t xml:space="preserve">which I don't really like. In rugby I play </t>
   </si>
   <si>
-    <t>inside centre| which is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">um really kind of (ER) forward| but erm helps at the back as </t>
-  </si>
-  <si>
-    <t>well| midfield if you're talking football wise. In football</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm a defender| and I play for the school team as well. In </t>
-  </si>
-  <si>
-    <t>cricket I'm not really er a bowler| but I can bowl quite well|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quite accurately| I'm more of a batter| and my </t>
-  </si>
-  <si>
     <t>favourite bat is the v sixhundred by Slazenger.</t>
   </si>
   <si>
     <t xml:space="preserve">Hu at school my favourite SSSSUBJECT is </t>
   </si>
   <si>
-    <t>science| and I like that because you</t>
-  </si>
-  <si>
     <t>get to find out a wide variety of things.I I</t>
   </si>
   <si>
-    <t>I like maths um quite a lot as well| I don't know why</t>
-  </si>
-  <si>
     <t>I just like it. And um my worst subject</t>
   </si>
   <si>
-    <t>is probably English or Latin. I don't like Latin â€˜cause very</t>
-  </si>
-  <si>
-    <t>hard| and English I'm just not very good at.</t>
-  </si>
-  <si>
-    <t>Um| at home| I like to play on the</t>
-  </si>
-  <si>
-    <t>computer a lot. I have a playstation| and an n64</t>
-  </si>
-  <si>
-    <t>my favouriteâ€™s the playstation| which I have lots of games on.</t>
-  </si>
-  <si>
-    <t>I like playing on the pc| especially on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the internet. Iâ€™ve my own e-mail addresses| </t>
-  </si>
-  <si>
-    <t>and I'm hoping to get my er new website done|</t>
-  </si>
-  <si>
-    <t>um| later this year.</t>
-  </si>
-  <si>
     <t xml:space="preserve">On the </t>
   </si>
   <si>
     <t xml:space="preserve">playstation my favourite game is DU DU DU DU DU </t>
   </si>
   <si>
-    <t>WWF smackdown which is a wrestling game| which</t>
-  </si>
-  <si>
     <t>is quite a recent one. Mum {block}W W ONE my favourite games</t>
   </si>
   <si>
-    <t>is resident evil three| it is very gory and has lots of blood.</t>
-  </si>
-  <si>
     <t>On the n64 my favourite game is James Bond</t>
   </si>
   <si>
-    <t>G GO GAR GOLDENEYE| which IZ</t>
-  </si>
-  <si>
     <t>{block}IZ based on the film erm with Pierce Brosnan starring as</t>
   </si>
   <si>
     <t>Um um MA FA FAVOURITE</t>
   </si>
   <si>
-    <t>things um is my|</t>
-  </si>
-  <si>
-    <t>my brother HEâ€™S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HE'S N NICE| </t>
-  </si>
-  <si>
     <t>I like him A L A LOT</t>
   </si>
   <si>
@@ -5704,9 +4915,6 @@
     <t>his nerves and I L L</t>
   </si>
   <si>
-    <t xml:space="preserve">LIKE my dad. He's| </t>
-  </si>
-  <si>
     <t xml:space="preserve">he's </t>
   </si>
   <si>
@@ -5725,15 +4933,6 @@
     <t>and I like my friends Bas-</t>
   </si>
   <si>
-    <t>-hir| Mike</t>
-  </si>
-  <si>
-    <t>M MANARD| Sharmad|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segam Abdil| </t>
-  </si>
-  <si>
     <t xml:space="preserve">those are the people who normally </t>
   </si>
   <si>
@@ -5761,21 +4960,12 @@
     <t xml:space="preserve">penguin K K KEYRING which is really beautiful </t>
   </si>
   <si>
-    <t xml:space="preserve">it's like| like lumpy circle </t>
-  </si>
-  <si>
     <t xml:space="preserve">with some like W W W W W </t>
   </si>
   <si>
-    <t>um| I like Dragonball</t>
-  </si>
-  <si>
     <t xml:space="preserve">Z Z  because it's like a IT </t>
   </si>
   <si>
-    <t>ITâ€™S a  M MANGA</t>
-  </si>
-  <si>
     <t>it was one of the first M MANGA cartoons</t>
   </si>
   <si>
@@ -5803,9 +4993,6 @@
     <t xml:space="preserve">W W WHEN Goku this sayen </t>
   </si>
   <si>
-    <t>and a sayen is somebody who can|</t>
-  </si>
-  <si>
     <t xml:space="preserve">WHO WHOSE WHO </t>
   </si>
   <si>
@@ -5815,24 +5002,12 @@
     <t>which is a special move that sayens can do.</t>
   </si>
   <si>
-    <t xml:space="preserve">And| and goku  WHO </t>
-  </si>
-  <si>
-    <t>WHO is a sayen| he</t>
-  </si>
-  <si>
     <t xml:space="preserve">WA and HE HE </t>
   </si>
   <si>
     <t>wasn't a super sayen SE AND AND</t>
   </si>
   <si>
-    <t>this is quite strange. His  his eyes turned|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">his eyes turned| what's the colour again? oh yeah| </t>
-  </si>
-  <si>
     <t>his eyes turned green TH HIS eyelid.</t>
   </si>
   <si>
@@ -5842,9 +5017,6 @@
     <t>eyebrows  turn Y YELLOW so does his hair</t>
   </si>
   <si>
-    <t xml:space="preserve">and his| and his M M </t>
-  </si>
-  <si>
     <t>MUSSES M MUSCLES get stronger and</t>
   </si>
   <si>
@@ -5855,6 +5027,831 @@
   </si>
   <si>
     <t>ya or EXTRUCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they got there THEY were having </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a battle and then </t>
+  </si>
+  <si>
+    <t xml:space="preserve">horse the wrong way and then he went into </t>
+  </si>
+  <si>
+    <t>four turtles yeah and THEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were in their house AND then </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEIR presents then then she said she </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOUND this it's like this </t>
+  </si>
+  <si>
+    <t>egg timer and it was from Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and it was like an antique and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">er she blew it THEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we saw into Japan and then </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it W but it was a long time ago and THEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">know on the egg timer there was some writing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and if you said it you would THE person who had the other one would </t>
+  </si>
+  <si>
+    <t xml:space="preserve">go in the  past and THE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">one in the past come to the future and then </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOOD there yeah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">back but but er </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAA PLI I got my playstation in the summer </t>
+  </si>
+  <si>
+    <t>holidays yeah AA AND  W when you open it</t>
+  </si>
+  <si>
+    <t>And you have to get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the other twenty and um you have to get the other ten. </t>
+  </si>
+  <si>
+    <t>And I've got nineteen of them so I need one more but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA and   DI is got </t>
+  </si>
+  <si>
+    <t xml:space="preserve">um it's got lots I think it's got five </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attack there's survival there's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice mode there's um </t>
+  </si>
+  <si>
+    <t xml:space="preserve">freeze mode there's um option mode </t>
+  </si>
+  <si>
+    <t>and there's arcade mode</t>
+  </si>
+  <si>
+    <t>there's six. And um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm looking forward to this game in about a month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and it's called Batman and Robin.  Um </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it's a two player game.  And um andum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm getting A A different game it's called </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASHOAW ASOAWGX and I it's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah when I get it yeah I'm going to be playing with it </t>
+  </si>
+  <si>
+    <t>Nintendo 64 which and he's got four games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's got Super Mario Land 64 </t>
+  </si>
+  <si>
+    <t>he's got Star Wars he's got</t>
+  </si>
+  <si>
+    <t>Lilac Wars and he's got I can't riMEM</t>
+  </si>
+  <si>
+    <t>WHAT WHAT colour hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last week last week we got to play football. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was really nice and then our team lost. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhm I think it was five-seven.  And then </t>
+  </si>
+  <si>
+    <t>and then uhm do you see the other the next uhm</t>
+  </si>
+  <si>
+    <t>the first day we were trying for our greens I got my</t>
+  </si>
+  <si>
+    <t>green but the most hardest is to get your</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red but uhm you see </t>
+  </si>
+  <si>
+    <t>my sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they said that I can't get my green I will never get my green </t>
+  </si>
+  <si>
+    <t>and then I did I showed them that I did. And then uhm</t>
+  </si>
+  <si>
+    <t>and then I was I was trying trying to get my blue we were having a test</t>
+  </si>
+  <si>
+    <t>to get a blue but I failed I failed but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but uhm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't mind anyway I didn't mind because I got my green. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And uhm </t>
+  </si>
+  <si>
+    <t>School. Uhm you see our school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you see now at our school I'm in year six </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and uhm um </t>
+  </si>
+  <si>
+    <t>I like to play football at school and basketball</t>
+  </si>
+  <si>
+    <t>and uhm you see you see our foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you see our footballers playing against the year five year six </t>
+  </si>
+  <si>
+    <t>versus year five and then and then and then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the score was 2-1 we beat them and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeah and uhm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um U I go to Trinthoe School </t>
+  </si>
+  <si>
+    <t>and I like doing football</t>
+  </si>
+  <si>
+    <t xml:space="preserve">art design technology maths and </t>
+  </si>
+  <si>
+    <t>My best hobby is football</t>
+  </si>
+  <si>
+    <t>er last year and.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your friends at schools your teachers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went round to his house um </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We wernt out on our bikes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNNNN there some dinosaurs escaped </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and well actually came back. </t>
+  </si>
+  <si>
+    <t>(S): Well they trying to catch them and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(I): How do they what how do they discover? </t>
+  </si>
+  <si>
+    <t>(I): Right OK that's great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Park the Simpsons Friends </t>
+  </si>
+  <si>
+    <t>Eastenders and</t>
+  </si>
+  <si>
+    <t>{block}MY favourite hobbies are skating</t>
+  </si>
+  <si>
+    <t>ramps and things like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I play football </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skateboarding em cricket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hockey swimming basketball and </t>
+  </si>
+  <si>
+    <t>I have got a playstation and I've got five games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiro The Dragon Heart Of Darkness </t>
+  </si>
+  <si>
+    <t>Tackle Two Touring Cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exodus and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a pet dog called Buddy and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and Flannel or something like that I I can't remember. </t>
+  </si>
+  <si>
+    <t>A HA HAVE A HAVE A large bedroomWI WITH a hi-fi</t>
+  </si>
+  <si>
+    <t>a drum kit and I play the viola</t>
+  </si>
+  <si>
+    <t>I used to play the piano grade one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um I came up on the train to here. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er we got on the train at Sutton and it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street and we got off the train at Warren Street </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeah um. Erm then we walked from Warren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street no we didn't um. WE GOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON WE GOT ON the Northern Line and we got on the train to </t>
+  </si>
+  <si>
+    <t>Street on the bus. Erm did some Christmas shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I don't know what I'm gonna get and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">er and then we're gonna go </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lonely. Home um and </t>
+  </si>
+  <si>
+    <t>and u and so we have to go and feed my other two</t>
+  </si>
+  <si>
+    <t>A AND West Indies were in dire straits yesterday</t>
+  </si>
+  <si>
+    <t>And for the last few years the West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indies er team HHHHHAS been declining in form </t>
+  </si>
+  <si>
+    <t>beaten by England er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaten by England in the last test match but they </t>
+  </si>
+  <si>
+    <t>still won it we still won the test three two. THEY GOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B- THEY BEATEN by South Africa three nil and they got beaten by </t>
+  </si>
+  <si>
+    <t>who else er I'm not sure now. Oh u um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er I support Wimbledon er </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A AND Wimbledon u u yeah a bit more money </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and er we're only tenth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the worst position was fifteenth{block}LAST season </t>
+  </si>
+  <si>
+    <t>players like Vinnie Jones but u WE WE wanted to sell for years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIFTY thousand er WE WE </t>
+  </si>
+  <si>
+    <t>sold er u I see Homesworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two million to Bolton </t>
+  </si>
+  <si>
+    <t>and for the last few years er so it was probably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last week {block}I just </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heard that West Indies were beaten five nil BY </t>
+  </si>
+  <si>
+    <t>four all three were beaten by er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNNOTTINGHAM Forest three one Blackburn </t>
+  </si>
+  <si>
+    <t>three one Southampton two nil and Charlton three one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{T1} and  I  normally  bat  number  FIVE  to  seven  yeah  and  the  next  thing  </t>
+  </si>
+  <si>
+    <t>in  think  it's  on  Saturday no Saturday or Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school  it's  not  very  good  but  it's  hard  and  we're  doing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has  been  okay  so  far  yeah  its been a  little  bit  boring  all  I've  been  doing  is  like  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just  like  err  (what you laughing at?) like watching  TV </t>
+  </si>
+  <si>
+    <t>playing  computer  games  music  and  stuff  seeing  that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day  yeah  so  I'm  hoping  to  go  down  bowling  and  then  go </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and er what else do I do?  At  school  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">he he's  leaving  this  year  so  we  should  have  a  new  PE  teacher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeah  and  I  don't  like  my  science  teacher - because he's  always  shouting  and  stuff  </t>
+  </si>
+  <si>
+    <t>but  Geography  was  a  bit  bad  as  well  Geography was  a  bit  bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I  missed  out  a  couple  of  homework  my  Mum </t>
+  </si>
+  <si>
+    <t>really  likes  cricket  yeah so and he  got  me  into  cricket  yeah  and  he  joined  me  up  to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just go I  just  go  to  training  in  the  morning  yeah  indoors. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We  do  indoor  and  outdoor  yeah  and  like use like the  PROPER  </t>
+  </si>
+  <si>
+    <t>ball  use  a  ball  yeah  and  got  some  cricket  stuff  upstairs  in  my  shelf  yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(?)  yeah and  last  time  I  played  for  the  school  yeah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I PLAY FOR A I PLAY FOR A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">two days ago AA AND AND WEE DIN   WI unfortunately </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUT THEN WA AR BUT THEN {blocks} OTHER {blocks} THE OTHER team </t>
+  </si>
+  <si>
+    <t>WHICH IS WHICH IS team b W {blocks} W WA WA went through and they</t>
+  </si>
+  <si>
+    <t xml:space="preserve">won the finals.  Um </t>
+  </si>
+  <si>
+    <t>um England and New Zealand I I I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And er and DH THE first game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um what else can we talk </t>
+  </si>
+  <si>
+    <t>hobbies. Um my</t>
+  </si>
+  <si>
+    <t>hobbies are I've told you that already but I'll say it again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um swimming wrestling </t>
+  </si>
+  <si>
+    <t>and playing KR cricket. Um</t>
+  </si>
+  <si>
+    <t>Alright m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my family um </t>
+  </si>
+  <si>
+    <t>right my dad HHHHHe is</t>
+  </si>
+  <si>
+    <t>um um and if I ain't a FOOGX{block}</t>
+  </si>
+  <si>
+    <t>FOOT{block}BOO baller rather be a gambler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a RESHstler or </t>
+  </si>
+  <si>
+    <t>what was that other one? UM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONE is called James Elgar one is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s at Wer{block}pole primary </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and SO SO he WENT WEN {block} E-ENT  off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">until I saw JAI JAI James Elgar and Joe Thatcher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">are different levels OF TECHNOLOGY </t>
+  </si>
+  <si>
+    <t>I  like  to  play  football  for  fun  and  because</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I  like  to  play  for  fun  I  normally  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">one  thing  I  like  to  be  on  the  football  team  because </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIM  because  when  you  swim  you  get  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">football  team I  like  any  team! </t>
+  </si>
+  <si>
+    <t>place  I  ever  been  was  to  er</t>
+  </si>
+  <si>
+    <t>LAND.  After  we  WENT  there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scary  ride  where  you  have  to  go  ON  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">um af </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um really last holiday </t>
+  </si>
+  <si>
+    <t>And um she has</t>
+  </si>
+  <si>
+    <t>a cat and three dogs it SSSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But my F FAVOUROTE part is when we went to this um </t>
+  </si>
+  <si>
+    <t>one second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er I mean I mean every five M M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad's head so it was really tall. </t>
+  </si>
+  <si>
+    <t>Um I there was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once when I was taking Laddy a dog out for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a walk and we and then we saw this big </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hornet well it wasn't a hornet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLLADDY the dog and we um I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puzzled.  Um </t>
+  </si>
+  <si>
+    <t>Um we also SSAwam in the lake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when I um w um knew </t>
+  </si>
+  <si>
+    <t>I play quite a lot in the week and all the time on the weekends.</t>
+  </si>
+  <si>
+    <t>At school they don't really do much tennis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sports such as football rugby athletics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an cricket. I'm in all those teams apart from athletics </t>
+  </si>
+  <si>
+    <t>inside centre which is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um really kind of (ER) forward but erm helps at the back as </t>
+  </si>
+  <si>
+    <t>well midfield if you're talking football wise. In football</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm a defender and I play for the school team as well. In </t>
+  </si>
+  <si>
+    <t>cricket I'm not really er a bowler but I can bowl quite well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quite accurately I'm more of a batter and my </t>
+  </si>
+  <si>
+    <t>science and I like that because you</t>
+  </si>
+  <si>
+    <t>I like maths um quite a lot as well I don't know why</t>
+  </si>
+  <si>
+    <t>hard and English I'm just not very good at.</t>
+  </si>
+  <si>
+    <t>Um at home I like to play on the</t>
+  </si>
+  <si>
+    <t>computer a lot. I have a playstation and an n64</t>
+  </si>
+  <si>
+    <t>I like playing on the pc especially on</t>
+  </si>
+  <si>
+    <t>and I'm hoping to get my er new website done</t>
+  </si>
+  <si>
+    <t>um later this year.</t>
+  </si>
+  <si>
+    <t>WWF smackdown which is a wrestling game which</t>
+  </si>
+  <si>
+    <t>is resident evil three it is very gory and has lots of blood.</t>
+  </si>
+  <si>
+    <t>G GO GAR GOLDENEYE which IZ</t>
+  </si>
+  <si>
+    <t>things um is my</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE'S N NICE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIKE my dad. He's </t>
+  </si>
+  <si>
+    <t>-hir Mike</t>
+  </si>
+  <si>
+    <t>M MANARD Sharmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segam Abdil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's like like lumpy circle </t>
+  </si>
+  <si>
+    <t>um I like Dragonball</t>
+  </si>
+  <si>
+    <t>and a sayen is somebody who can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And and goku  WHO </t>
+  </si>
+  <si>
+    <t>WHO is a sayen he</t>
+  </si>
+  <si>
+    <t>this is quite strange. His  his eyes turned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his eyes turned what's the colour again? oh yeah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and his and his M M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">though: cause it's not really that intense: so </t>
+  </si>
+  <si>
+    <t xml:space="preserve">found it and um she CAUSE you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and then I stopped after grade one cause IT IT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">took us ages cause we got on the slow train to </t>
+  </si>
+  <si>
+    <t>is probably English or Latin. I don't like Latin cause very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm at SS SS AINT SAINT Johns now: erm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">which is a CH CH CHANGE cause its normally three. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all of which I can't stand except Art: but thats still </t>
+  </si>
+  <si>
+    <t xml:space="preserve">got loads of work that Ive got </t>
+  </si>
+  <si>
+    <t>Erm Physics IS ISNT that bad:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but we've got this teacher whos so boring.He could </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W W W WORRYING: seeing as weve got exams coming up. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erm Artss quite fun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">although Ive still got to do quite a bit on that: certainly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That bits a bit too technical really. </t>
+  </si>
+  <si>
+    <t>I I ITS fine. Erm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er the baddys son </t>
+  </si>
+  <si>
+    <t xml:space="preserve">different stages THERES THERES time </t>
+  </si>
+  <si>
+    <t>you call it ITS A K  ITS A shooting game I think it's two player.</t>
+  </si>
+  <si>
+    <t>beetle I CANT I CANT remem</t>
+  </si>
+  <si>
+    <t>lining out Ill have to tell them to stop talking and jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">things you like to do at school. Yeah. {Interviewer}. My best friends XXXX XXXXXX. </t>
+  </si>
+  <si>
+    <t>(S): U its sequel to Jrassic Park</t>
+  </si>
+  <si>
+    <t>A AND Aduad World Abes</t>
+  </si>
+  <si>
+    <t>Because IVE IVE been given 10 pounds to get a Christmas present with myself</t>
+  </si>
+  <si>
+    <t>home. Cause our dogs at home and HE WILL BE HE WILL getting</t>
+  </si>
+  <si>
+    <t>I dont want to do that.</t>
+  </si>
+  <si>
+    <t>Because have to clean it up. And thats</t>
+  </si>
+  <si>
+    <t>its not very nice.</t>
+  </si>
+  <si>
+    <t>like for instance theyve beaten by Pakistan three nil</t>
+  </si>
+  <si>
+    <t>um Im back to football now.</t>
+  </si>
+  <si>
+    <t>and but er for the last few SEEEEEEEEEEEE EEEEEEROUT weve been selling some good</t>
+  </si>
+  <si>
+    <t>Ive been Ive  been  bowling and  Ive er got  a  friend's  birthday  on  Tues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandos  to  have  a  bit  of  something  to  eat.  Yeah </t>
+  </si>
+  <si>
+    <t>things like that I  don't  like  him.  His  name his names  Mr  Scantlebury don't  like  him.</t>
+  </si>
+  <si>
+    <t>Hornsea think its sometime  last  month  yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeah  ({T2} How much?) er I thinks its </t>
+  </si>
+  <si>
+    <t>yeah well. We beat White Hart Lane as well er theyre shabby.</t>
+  </si>
+  <si>
+    <t>Aballer WE WHEN I grow up. And</t>
+  </si>
+  <si>
+    <t>um. And I've got three friends at WWWWWWeston ONES</t>
+  </si>
+  <si>
+    <t>AA AA AA AA AA AA AA AA AA AA AA chers  BRU {block} brother</t>
+  </si>
+  <si>
+    <t>and she said wm going to have it in uh</t>
+  </si>
+  <si>
+    <t>Im N NOT sure if this true or not</t>
+  </si>
+  <si>
+    <t>my favourites the playstation which I have lots of games on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the internet. Ive my own e-mail addresses </t>
+  </si>
+  <si>
+    <t>my brother HES</t>
+  </si>
+  <si>
+    <t>ITS a  M MANGA</t>
+  </si>
+  <si>
+    <t>Park  in  the  MORNING  and  we</t>
   </si>
 </sst>
 </file>
@@ -6687,8 +6684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1039" sqref="F1039"/>
+    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
+      <selection activeCell="B842" sqref="B842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9906,7 +9903,7 @@
         <v>332</v>
       </c>
       <c r="B303" t="s">
-        <v>1321</v>
+        <v>1903</v>
       </c>
       <c r="F303">
         <v>1</v>
@@ -9925,7 +9922,7 @@
         <v>334</v>
       </c>
       <c r="B305" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -9939,7 +9936,7 @@
         <v>335</v>
       </c>
       <c r="B306" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -9950,7 +9947,7 @@
         <v>336</v>
       </c>
       <c r="B307" t="s">
-        <v>1309</v>
+        <v>1904</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -9961,7 +9958,7 @@
         <v>337</v>
       </c>
       <c r="B308" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="F308">
         <v>1</v>
@@ -9972,7 +9969,7 @@
         <v>338</v>
       </c>
       <c r="B309" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="J309">
         <v>1</v>
@@ -9983,7 +9980,7 @@
         <v>339</v>
       </c>
       <c r="B310" t="s">
-        <v>1325</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -9991,7 +9988,7 @@
         <v>340</v>
       </c>
       <c r="B311" t="s">
-        <v>1310</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -9999,7 +9996,7 @@
         <v>341</v>
       </c>
       <c r="B312" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -10007,7 +10004,7 @@
         <v>342</v>
       </c>
       <c r="B313" t="s">
-        <v>1327</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -10015,7 +10012,7 @@
         <v>343</v>
       </c>
       <c r="B314" t="s">
-        <v>1311</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -10023,7 +10020,7 @@
         <v>344</v>
       </c>
       <c r="B315" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -10034,7 +10031,7 @@
         <v>345</v>
       </c>
       <c r="B316" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -10045,7 +10042,7 @@
         <v>346</v>
       </c>
       <c r="B317" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -10056,7 +10053,7 @@
         <v>347</v>
       </c>
       <c r="B318" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -10067,7 +10064,7 @@
         <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -10078,7 +10075,7 @@
         <v>349</v>
       </c>
       <c r="B320" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -10092,7 +10089,7 @@
         <v>350</v>
       </c>
       <c r="B321" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -10106,7 +10103,7 @@
         <v>351</v>
       </c>
       <c r="B322" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -10114,7 +10111,7 @@
         <v>352</v>
       </c>
       <c r="B323" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -10128,7 +10125,7 @@
         <v>353</v>
       </c>
       <c r="B324" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -10136,7 +10133,7 @@
         <v>354</v>
       </c>
       <c r="B325" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -10144,7 +10141,7 @@
         <v>355</v>
       </c>
       <c r="B326" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="J326">
         <v>1</v>
@@ -10155,7 +10152,7 @@
         <v>356</v>
       </c>
       <c r="B327" t="s">
-        <v>1337</v>
+        <v>1909</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -10166,7 +10163,7 @@
         <v>357</v>
       </c>
       <c r="B328" t="s">
-        <v>1315</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -10174,7 +10171,7 @@
         <v>358</v>
       </c>
       <c r="B329" t="s">
-        <v>1338</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -10182,7 +10179,7 @@
         <v>359</v>
       </c>
       <c r="B330" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -10193,7 +10190,7 @@
         <v>360</v>
       </c>
       <c r="B331" t="s">
-        <v>1340</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -10201,7 +10198,7 @@
         <v>361</v>
       </c>
       <c r="B332" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -10212,7 +10209,7 @@
         <v>362</v>
       </c>
       <c r="B333" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -10223,7 +10220,7 @@
         <v>363</v>
       </c>
       <c r="B334" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -10231,7 +10228,7 @@
         <v>364</v>
       </c>
       <c r="B335" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -10242,7 +10239,7 @@
         <v>365</v>
       </c>
       <c r="B336" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -10253,7 +10250,7 @@
         <v>366</v>
       </c>
       <c r="B337" t="s">
-        <v>1319</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10261,7 +10258,7 @@
         <v>367</v>
       </c>
       <c r="B338" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -10272,7 +10269,7 @@
         <v>368</v>
       </c>
       <c r="B339" t="s">
-        <v>1320</v>
+        <v>1913</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -10286,7 +10283,7 @@
         <v>369</v>
       </c>
       <c r="B340" t="s">
-        <v>1370</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10294,7 +10291,7 @@
         <v>370</v>
       </c>
       <c r="B341" t="s">
-        <v>1371</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10302,7 +10299,7 @@
         <v>371</v>
       </c>
       <c r="B342" t="s">
-        <v>1372</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10310,7 +10307,7 @@
         <v>372</v>
       </c>
       <c r="B343" t="s">
-        <v>1373</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10318,7 +10315,7 @@
         <v>373</v>
       </c>
       <c r="B344" t="s">
-        <v>1374</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10326,7 +10323,7 @@
         <v>374</v>
       </c>
       <c r="B345" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="H345">
         <v>1</v>
@@ -10337,7 +10334,7 @@
         <v>375</v>
       </c>
       <c r="B346" t="s">
-        <v>1346</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10345,7 +10342,7 @@
         <v>376</v>
       </c>
       <c r="B347" t="s">
-        <v>1347</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10353,7 +10350,7 @@
         <v>377</v>
       </c>
       <c r="B348" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10361,7 +10358,7 @@
         <v>378</v>
       </c>
       <c r="B349" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10369,7 +10366,7 @@
         <v>379</v>
       </c>
       <c r="B350" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10377,7 +10374,7 @@
         <v>380</v>
       </c>
       <c r="B351" t="s">
-        <v>1351</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10385,7 +10382,7 @@
         <v>381</v>
       </c>
       <c r="B352" t="s">
-        <v>1352</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10393,7 +10390,7 @@
         <v>382</v>
       </c>
       <c r="B353" t="s">
-        <v>1353</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10401,7 +10398,7 @@
         <v>383</v>
       </c>
       <c r="B354" t="s">
-        <v>1354</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10409,7 +10406,7 @@
         <v>384</v>
       </c>
       <c r="B355" t="s">
-        <v>1355</v>
+        <v>1337</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -10420,7 +10417,7 @@
         <v>385</v>
       </c>
       <c r="B356" t="s">
-        <v>1356</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10428,7 +10425,7 @@
         <v>386</v>
       </c>
       <c r="B357" t="s">
-        <v>1357</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10436,7 +10433,7 @@
         <v>387</v>
       </c>
       <c r="B358" t="s">
-        <v>1358</v>
+        <v>1682</v>
       </c>
       <c r="H358">
         <v>1</v>
@@ -10447,7 +10444,7 @@
         <v>388</v>
       </c>
       <c r="B359" t="s">
-        <v>1359</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10455,7 +10452,7 @@
         <v>389</v>
       </c>
       <c r="B360" t="s">
-        <v>1360</v>
+        <v>1899</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -10466,7 +10463,7 @@
         <v>390</v>
       </c>
       <c r="B361" t="s">
-        <v>1361</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10474,7 +10471,7 @@
         <v>391</v>
       </c>
       <c r="B362" t="s">
-        <v>1362</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10482,7 +10479,7 @@
         <v>392</v>
       </c>
       <c r="B363" t="s">
-        <v>1363</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10490,7 +10487,7 @@
         <v>393</v>
       </c>
       <c r="B364" t="s">
-        <v>1364</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10498,7 +10495,7 @@
         <v>394</v>
       </c>
       <c r="B365" t="s">
-        <v>1365</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10506,7 +10503,7 @@
         <v>395</v>
       </c>
       <c r="B366" t="s">
-        <v>1366</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10514,7 +10511,7 @@
         <v>396</v>
       </c>
       <c r="B367" t="s">
-        <v>1367</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10522,7 +10519,7 @@
         <v>397</v>
       </c>
       <c r="B368" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10530,7 +10527,7 @@
         <v>398</v>
       </c>
       <c r="B369" t="s">
-        <v>1369</v>
+        <v>1688</v>
       </c>
       <c r="F369">
         <v>1</v>
@@ -10549,7 +10546,7 @@
         <v>400</v>
       </c>
       <c r="B371" t="s">
-        <v>1375</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10557,7 +10554,7 @@
         <v>401</v>
       </c>
       <c r="B372" t="s">
-        <v>1376</v>
+        <v>1690</v>
       </c>
       <c r="H372">
         <v>1</v>
@@ -10568,7 +10565,7 @@
         <v>402</v>
       </c>
       <c r="B373" t="s">
-        <v>1377</v>
+        <v>1343</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -10579,7 +10576,7 @@
         <v>403</v>
       </c>
       <c r="B374" t="s">
-        <v>1378</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10587,7 +10584,7 @@
         <v>404</v>
       </c>
       <c r="B375" t="s">
-        <v>1379</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10595,7 +10592,7 @@
         <v>405</v>
       </c>
       <c r="B376" t="s">
-        <v>1380</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10603,7 +10600,7 @@
         <v>406</v>
       </c>
       <c r="B377" t="s">
-        <v>1381</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10611,7 +10608,7 @@
         <v>407</v>
       </c>
       <c r="B378" t="s">
-        <v>1382</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10619,7 +10616,7 @@
         <v>408</v>
       </c>
       <c r="B379" t="s">
-        <v>1383</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10627,7 +10624,7 @@
         <v>409</v>
       </c>
       <c r="B380" t="s">
-        <v>1384</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10635,7 +10632,7 @@
         <v>410</v>
       </c>
       <c r="B381" t="s">
-        <v>1385</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10643,7 +10640,7 @@
         <v>411</v>
       </c>
       <c r="B382" t="s">
-        <v>1386</v>
+        <v>1915</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -10654,7 +10651,7 @@
         <v>412</v>
       </c>
       <c r="B383" t="s">
-        <v>1387</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10662,7 +10659,7 @@
         <v>413</v>
       </c>
       <c r="B384" t="s">
-        <v>1388</v>
+        <v>1697</v>
       </c>
       <c r="F384">
         <v>1</v>
@@ -10673,7 +10670,7 @@
         <v>414</v>
       </c>
       <c r="B385" t="s">
-        <v>1389</v>
+        <v>1698</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -10684,7 +10681,7 @@
         <v>415</v>
       </c>
       <c r="B386" t="s">
-        <v>1390</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10692,7 +10689,7 @@
         <v>416</v>
       </c>
       <c r="B387" t="s">
-        <v>1391</v>
+        <v>1700</v>
       </c>
       <c r="F387">
         <v>1</v>
@@ -10703,7 +10700,7 @@
         <v>417</v>
       </c>
       <c r="B388" t="s">
-        <v>1392</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10711,7 +10708,7 @@
         <v>418</v>
       </c>
       <c r="B389" t="s">
-        <v>1393</v>
+        <v>1702</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -10722,7 +10719,7 @@
         <v>419</v>
       </c>
       <c r="B390" t="s">
-        <v>1394</v>
+        <v>1703</v>
       </c>
       <c r="F390">
         <v>2</v>
@@ -10733,7 +10730,7 @@
         <v>420</v>
       </c>
       <c r="B391" t="s">
-        <v>1395</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10741,7 +10738,7 @@
         <v>421</v>
       </c>
       <c r="B392" t="s">
-        <v>1396</v>
+        <v>1704</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -10752,7 +10749,7 @@
         <v>422</v>
       </c>
       <c r="B393" t="s">
-        <v>1397</v>
+        <v>1705</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -10763,7 +10760,7 @@
         <v>423</v>
       </c>
       <c r="B394" t="s">
-        <v>1398</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10771,7 +10768,7 @@
         <v>424</v>
       </c>
       <c r="B395" t="s">
-        <v>1399</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10779,7 +10776,7 @@
         <v>425</v>
       </c>
       <c r="B396" t="s">
-        <v>1400</v>
+        <v>1348</v>
       </c>
       <c r="F396">
         <v>1</v>
@@ -10790,7 +10787,7 @@
         <v>426</v>
       </c>
       <c r="B397" t="s">
-        <v>1401</v>
+        <v>1349</v>
       </c>
       <c r="H397">
         <v>1</v>
@@ -10801,7 +10798,7 @@
         <v>427</v>
       </c>
       <c r="B398" t="s">
-        <v>1402</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10809,7 +10806,7 @@
         <v>428</v>
       </c>
       <c r="B399" t="s">
-        <v>1403</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10817,7 +10814,7 @@
         <v>429</v>
       </c>
       <c r="B400" t="s">
-        <v>1404</v>
+        <v>1709</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -10828,7 +10825,7 @@
         <v>430</v>
       </c>
       <c r="B401" t="s">
-        <v>1405</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -10996,7 +10993,7 @@
         <v>463</v>
       </c>
       <c r="B434" t="s">
-        <v>1406</v>
+        <v>1350</v>
       </c>
       <c r="F434">
         <v>1</v>
@@ -11007,7 +11004,7 @@
         <v>464</v>
       </c>
       <c r="B435" t="s">
-        <v>1407</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="436" spans="1:10">
@@ -11015,7 +11012,7 @@
         <v>465</v>
       </c>
       <c r="B436" t="s">
-        <v>1408</v>
+        <v>1352</v>
       </c>
       <c r="F436">
         <v>1</v>
@@ -11026,7 +11023,7 @@
         <v>466</v>
       </c>
       <c r="B437" t="s">
-        <v>1409</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="438" spans="1:10">
@@ -11034,7 +11031,7 @@
         <v>467</v>
       </c>
       <c r="B438" t="s">
-        <v>1410</v>
+        <v>1354</v>
       </c>
       <c r="F438">
         <v>1</v>
@@ -11045,7 +11042,7 @@
         <v>468</v>
       </c>
       <c r="B439" t="s">
-        <v>1411</v>
+        <v>1711</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -11056,7 +11053,7 @@
         <v>469</v>
       </c>
       <c r="B440" t="s">
-        <v>1412</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="441" spans="1:10">
@@ -11064,7 +11061,7 @@
         <v>470</v>
       </c>
       <c r="B441" t="s">
-        <v>1413</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="442" spans="1:10">
@@ -11072,7 +11069,7 @@
         <v>471</v>
       </c>
       <c r="B442" t="s">
-        <v>1414</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="443" spans="1:10">
@@ -11080,7 +11077,7 @@
         <v>472</v>
       </c>
       <c r="B443" t="s">
-        <v>1415</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="444" spans="1:10">
@@ -11088,7 +11085,7 @@
         <v>473</v>
       </c>
       <c r="B444" t="s">
-        <v>1416</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="445" spans="1:10">
@@ -11096,7 +11093,7 @@
         <v>474</v>
       </c>
       <c r="B445" t="s">
-        <v>1417</v>
+        <v>1360</v>
       </c>
       <c r="J445">
         <v>1</v>
@@ -11107,7 +11104,7 @@
         <v>475</v>
       </c>
       <c r="B446" t="s">
-        <v>1418</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="447" spans="1:10">
@@ -11115,7 +11112,7 @@
         <v>476</v>
       </c>
       <c r="B447" t="s">
-        <v>1419</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -11123,7 +11120,7 @@
         <v>477</v>
       </c>
       <c r="B448" t="s">
-        <v>1420</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -11131,7 +11128,7 @@
         <v>478</v>
       </c>
       <c r="B449" t="s">
-        <v>1421</v>
+        <v>1364</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -11142,7 +11139,7 @@
         <v>479</v>
       </c>
       <c r="B450" t="s">
-        <v>1422</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -11150,7 +11147,7 @@
         <v>480</v>
       </c>
       <c r="B451" t="s">
-        <v>1423</v>
+        <v>1366</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -11161,7 +11158,7 @@
         <v>481</v>
       </c>
       <c r="B452" t="s">
-        <v>1424</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -11169,7 +11166,7 @@
         <v>482</v>
       </c>
       <c r="B453" t="s">
-        <v>1425</v>
+        <v>1368</v>
       </c>
       <c r="F453">
         <v>1</v>
@@ -11188,7 +11185,7 @@
         <v>484</v>
       </c>
       <c r="B455" t="s">
-        <v>1426</v>
+        <v>1369</v>
       </c>
       <c r="F455">
         <v>1</v>
@@ -11199,7 +11196,7 @@
         <v>485</v>
       </c>
       <c r="B456" t="s">
-        <v>1427</v>
+        <v>1370</v>
       </c>
       <c r="F456">
         <v>1</v>
@@ -11210,7 +11207,7 @@
         <v>486</v>
       </c>
       <c r="B457" t="s">
-        <v>1428</v>
+        <v>1371</v>
       </c>
       <c r="F457">
         <v>1</v>
@@ -11221,7 +11218,7 @@
         <v>487</v>
       </c>
       <c r="B458" t="s">
-        <v>1429</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -11229,7 +11226,7 @@
         <v>488</v>
       </c>
       <c r="B459" t="s">
-        <v>1430</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -11237,7 +11234,7 @@
         <v>489</v>
       </c>
       <c r="B460" t="s">
-        <v>1431</v>
+        <v>1374</v>
       </c>
       <c r="F460">
         <v>1</v>
@@ -11248,7 +11245,7 @@
         <v>490</v>
       </c>
       <c r="B461" t="s">
-        <v>1432</v>
+        <v>1375</v>
       </c>
       <c r="F461">
         <v>1</v>
@@ -11259,7 +11256,7 @@
         <v>491</v>
       </c>
       <c r="B462" t="s">
-        <v>1433</v>
+        <v>1376</v>
       </c>
       <c r="F462">
         <v>1</v>
@@ -11270,7 +11267,7 @@
         <v>492</v>
       </c>
       <c r="B463" t="s">
-        <v>1434</v>
+        <v>1377</v>
       </c>
       <c r="F463">
         <v>1</v>
@@ -11281,7 +11278,7 @@
         <v>493</v>
       </c>
       <c r="B464" t="s">
-        <v>1435</v>
+        <v>1378</v>
       </c>
       <c r="F464">
         <v>1</v>
@@ -11292,7 +11289,7 @@
         <v>494</v>
       </c>
       <c r="B465" t="s">
-        <v>1436</v>
+        <v>1379</v>
       </c>
       <c r="F465">
         <v>1</v>
@@ -11303,7 +11300,7 @@
         <v>495</v>
       </c>
       <c r="B466" t="s">
-        <v>1437</v>
+        <v>1917</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -11314,7 +11311,7 @@
         <v>496</v>
       </c>
       <c r="B467" t="s">
-        <v>1438</v>
+        <v>1380</v>
       </c>
       <c r="F467">
         <v>1</v>
@@ -11325,7 +11322,7 @@
         <v>497</v>
       </c>
       <c r="B468" t="s">
-        <v>1439</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -11333,7 +11330,7 @@
         <v>498</v>
       </c>
       <c r="B469" t="s">
-        <v>1440</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -11341,7 +11338,7 @@
         <v>499</v>
       </c>
       <c r="B470" t="s">
-        <v>1441</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -11349,7 +11346,7 @@
         <v>500</v>
       </c>
       <c r="B471" t="s">
-        <v>1442</v>
+        <v>1714</v>
       </c>
       <c r="F471">
         <v>1</v>
@@ -11360,7 +11357,7 @@
         <v>501</v>
       </c>
       <c r="B472" t="s">
-        <v>1443</v>
+        <v>1715</v>
       </c>
       <c r="F472">
         <v>1</v>
@@ -11371,7 +11368,7 @@
         <v>502</v>
       </c>
       <c r="B473" t="s">
-        <v>1444</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -11379,7 +11376,7 @@
         <v>503</v>
       </c>
       <c r="B474" t="s">
-        <v>1445</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -11387,7 +11384,7 @@
         <v>504</v>
       </c>
       <c r="B475" t="s">
-        <v>1446</v>
+        <v>1718</v>
       </c>
       <c r="F475">
         <v>1</v>
@@ -11398,7 +11395,7 @@
         <v>505</v>
       </c>
       <c r="B476" t="s">
-        <v>1447</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -11406,7 +11403,7 @@
         <v>506</v>
       </c>
       <c r="B477" t="s">
-        <v>1448</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -11414,7 +11411,7 @@
         <v>507</v>
       </c>
       <c r="B478" t="s">
-        <v>1449</v>
+        <v>1721</v>
       </c>
       <c r="F478">
         <v>1</v>
@@ -11425,7 +11422,7 @@
         <v>508</v>
       </c>
       <c r="B479" t="s">
-        <v>1450</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -11433,7 +11430,7 @@
         <v>509</v>
       </c>
       <c r="B480" t="s">
-        <v>1451</v>
+        <v>1723</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -11444,7 +11441,7 @@
         <v>510</v>
       </c>
       <c r="B481" t="s">
-        <v>1452</v>
+        <v>1724</v>
       </c>
       <c r="F481">
         <v>1</v>
@@ -11455,7 +11452,7 @@
         <v>511</v>
       </c>
       <c r="B482" t="s">
-        <v>1453</v>
+        <v>1725</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -11466,7 +11463,7 @@
         <v>512</v>
       </c>
       <c r="B483" t="s">
-        <v>1454</v>
+        <v>1726</v>
       </c>
       <c r="F483">
         <v>1</v>
@@ -11477,7 +11474,7 @@
         <v>513</v>
       </c>
       <c r="B484" t="s">
-        <v>1455</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -11485,7 +11482,7 @@
         <v>514</v>
       </c>
       <c r="B485" t="s">
-        <v>1456</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -11493,7 +11490,7 @@
         <v>515</v>
       </c>
       <c r="B486" t="s">
-        <v>1457</v>
+        <v>1727</v>
       </c>
       <c r="F486">
         <v>1</v>
@@ -11504,7 +11501,7 @@
         <v>516</v>
       </c>
       <c r="B487" t="s">
-        <v>1458</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -11512,7 +11509,7 @@
         <v>517</v>
       </c>
       <c r="B488" t="s">
-        <v>1459</v>
+        <v>1729</v>
       </c>
       <c r="F488">
         <v>1</v>
@@ -11523,7 +11520,7 @@
         <v>518</v>
       </c>
       <c r="B489" t="s">
-        <v>1460</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -11531,7 +11528,7 @@
         <v>519</v>
       </c>
       <c r="B490" t="s">
-        <v>1461</v>
+        <v>1731</v>
       </c>
       <c r="F490">
         <v>1</v>
@@ -11542,7 +11539,7 @@
         <v>520</v>
       </c>
       <c r="B491" t="s">
-        <v>1462</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -11550,7 +11547,7 @@
         <v>521</v>
       </c>
       <c r="B492" t="s">
-        <v>1463</v>
+        <v>1733</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -11561,7 +11558,7 @@
         <v>522</v>
       </c>
       <c r="B493" t="s">
-        <v>1464</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -11569,7 +11566,7 @@
         <v>523</v>
       </c>
       <c r="B494" t="s">
-        <v>1465</v>
+        <v>1384</v>
       </c>
       <c r="F494">
         <v>1</v>
@@ -11580,7 +11577,7 @@
         <v>524</v>
       </c>
       <c r="B495" t="s">
-        <v>1466</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -11588,7 +11585,7 @@
         <v>525</v>
       </c>
       <c r="B496" t="s">
-        <v>1467</v>
+        <v>1735</v>
       </c>
       <c r="F496">
         <v>1</v>
@@ -11607,7 +11604,7 @@
         <v>527</v>
       </c>
       <c r="B498" t="s">
-        <v>1468</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -11615,7 +11612,7 @@
         <v>528</v>
       </c>
       <c r="B499" t="s">
-        <v>1469</v>
+        <v>1736</v>
       </c>
       <c r="F499">
         <v>1</v>
@@ -11626,7 +11623,7 @@
         <v>529</v>
       </c>
       <c r="B500" t="s">
-        <v>1470</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -11634,7 +11631,7 @@
         <v>530</v>
       </c>
       <c r="B501" t="s">
-        <v>1471</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -11642,7 +11639,7 @@
         <v>531</v>
       </c>
       <c r="B502" t="s">
-        <v>1472</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -11650,7 +11647,7 @@
         <v>532</v>
       </c>
       <c r="B503" t="s">
-        <v>1473</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -11658,7 +11655,7 @@
         <v>533</v>
       </c>
       <c r="B504" t="s">
-        <v>1474</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -11666,7 +11663,7 @@
         <v>534</v>
       </c>
       <c r="B505" t="s">
-        <v>1475</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -11682,7 +11679,7 @@
         <v>536</v>
       </c>
       <c r="B507" t="s">
-        <v>1476</v>
+        <v>1388</v>
       </c>
       <c r="F507">
         <v>1</v>
@@ -11693,7 +11690,7 @@
         <v>537</v>
       </c>
       <c r="B508" t="s">
-        <v>1477</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -11701,7 +11698,7 @@
         <v>538</v>
       </c>
       <c r="B509" t="s">
-        <v>1478</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -11709,7 +11706,7 @@
         <v>539</v>
       </c>
       <c r="B510" t="s">
-        <v>1479</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -11728,7 +11725,7 @@
         <v>541</v>
       </c>
       <c r="B512" t="s">
-        <v>1480</v>
+        <v>1742</v>
       </c>
       <c r="F512">
         <v>1</v>
@@ -11739,7 +11736,7 @@
         <v>542</v>
       </c>
       <c r="B513" t="s">
-        <v>1481</v>
+        <v>1390</v>
       </c>
       <c r="J513">
         <v>1</v>
@@ -11750,7 +11747,7 @@
         <v>543</v>
       </c>
       <c r="B514" t="s">
-        <v>1482</v>
+        <v>1391</v>
       </c>
       <c r="F514">
         <v>1</v>
@@ -11761,7 +11758,7 @@
         <v>544</v>
       </c>
       <c r="B515" t="s">
-        <v>1483</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="516" spans="1:10">
@@ -11769,7 +11766,7 @@
         <v>545</v>
       </c>
       <c r="B516" t="s">
-        <v>1484</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -11777,7 +11774,7 @@
         <v>546</v>
       </c>
       <c r="B517" t="s">
-        <v>1485</v>
+        <v>1393</v>
       </c>
       <c r="F517">
         <v>1</v>
@@ -11788,7 +11785,7 @@
         <v>547</v>
       </c>
       <c r="B518" t="s">
-        <v>1486</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -11796,7 +11793,7 @@
         <v>548</v>
       </c>
       <c r="B519" t="s">
-        <v>1487</v>
+        <v>1395</v>
       </c>
       <c r="F519">
         <v>1</v>
@@ -11807,7 +11804,7 @@
         <v>549</v>
       </c>
       <c r="B520" t="s">
-        <v>1488</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -11815,7 +11812,7 @@
         <v>550</v>
       </c>
       <c r="B521" t="s">
-        <v>1489</v>
+        <v>1591</v>
       </c>
       <c r="F521">
         <v>1</v>
@@ -11826,7 +11823,7 @@
         <v>551</v>
       </c>
       <c r="B522" t="s">
-        <v>1502</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="523" spans="1:10">
@@ -11834,7 +11831,7 @@
         <v>552</v>
       </c>
       <c r="B523" t="s">
-        <v>1501</v>
+        <v>1402</v>
       </c>
       <c r="F523">
         <v>1</v>
@@ -11845,7 +11842,7 @@
         <v>553</v>
       </c>
       <c r="B524" t="s">
-        <v>1490</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="525" spans="1:10">
@@ -11853,7 +11850,7 @@
         <v>554</v>
       </c>
       <c r="B525" t="s">
-        <v>1491</v>
+        <v>1920</v>
       </c>
       <c r="F525">
         <v>1</v>
@@ -11864,7 +11861,7 @@
         <v>555</v>
       </c>
       <c r="B526" t="s">
-        <v>1492</v>
+        <v>1744</v>
       </c>
       <c r="G526">
         <v>1</v>
@@ -11875,7 +11872,7 @@
         <v>556</v>
       </c>
       <c r="B527" t="s">
-        <v>1493</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="528" spans="1:10">
@@ -11883,7 +11880,7 @@
         <v>557</v>
       </c>
       <c r="B528" t="s">
-        <v>1485</v>
+        <v>1393</v>
       </c>
       <c r="F528">
         <v>1</v>
@@ -11902,7 +11899,7 @@
         <v>559</v>
       </c>
       <c r="B530" t="s">
-        <v>1494</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="531" spans="1:10">
@@ -11910,7 +11907,7 @@
         <v>560</v>
       </c>
       <c r="B531" t="s">
-        <v>1495</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="532" spans="1:10">
@@ -11918,7 +11915,7 @@
         <v>561</v>
       </c>
       <c r="B532" t="s">
-        <v>1496</v>
+        <v>1399</v>
       </c>
       <c r="F532">
         <v>1</v>
@@ -11929,7 +11926,7 @@
         <v>562</v>
       </c>
       <c r="B533" t="s">
-        <v>1497</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="534" spans="1:10">
@@ -11937,7 +11934,7 @@
         <v>563</v>
       </c>
       <c r="B534" t="s">
-        <v>1498</v>
+        <v>1400</v>
       </c>
       <c r="G534">
         <v>1</v>
@@ -11951,7 +11948,7 @@
         <v>564</v>
       </c>
       <c r="B535" t="s">
-        <v>1499</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="536" spans="1:10">
@@ -11959,7 +11956,7 @@
         <v>565</v>
       </c>
       <c r="B536" t="s">
-        <v>1500</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="537" spans="1:10">
@@ -11967,7 +11964,7 @@
         <v>566</v>
       </c>
       <c r="B537" t="s">
-        <v>1503</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="538" spans="1:10">
@@ -11975,7 +11972,7 @@
         <v>567</v>
       </c>
       <c r="B538" t="s">
-        <v>1504</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="539" spans="1:10">
@@ -11983,7 +11980,7 @@
         <v>568</v>
       </c>
       <c r="B539" t="s">
-        <v>1505</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="540" spans="1:10">
@@ -11991,7 +11988,7 @@
         <v>569</v>
       </c>
       <c r="B540" t="s">
-        <v>1506</v>
+        <v>1405</v>
       </c>
       <c r="F540">
         <v>1</v>
@@ -12002,7 +11999,7 @@
         <v>570</v>
       </c>
       <c r="B541" t="s">
-        <v>1507</v>
+        <v>1751</v>
       </c>
       <c r="J541">
         <v>1</v>
@@ -12013,7 +12010,7 @@
         <v>571</v>
       </c>
       <c r="B542" t="s">
-        <v>1508</v>
+        <v>1406</v>
       </c>
       <c r="J542">
         <v>1</v>
@@ -12024,7 +12021,7 @@
         <v>572</v>
       </c>
       <c r="B543" t="s">
-        <v>1509</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="544" spans="1:10">
@@ -12032,7 +12029,7 @@
         <v>573</v>
       </c>
       <c r="B544" t="s">
-        <v>1510</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -12040,7 +12037,7 @@
         <v>574</v>
       </c>
       <c r="B545" t="s">
-        <v>1511</v>
+        <v>1754</v>
       </c>
       <c r="F545">
         <v>1</v>
@@ -12051,7 +12048,7 @@
         <v>575</v>
       </c>
       <c r="B546" t="s">
-        <v>1512</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -12059,7 +12056,7 @@
         <v>576</v>
       </c>
       <c r="B547" t="s">
-        <v>1513</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -12067,7 +12064,7 @@
         <v>577</v>
       </c>
       <c r="B548" t="s">
-        <v>1514</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -12075,7 +12072,7 @@
         <v>578</v>
       </c>
       <c r="B549" t="s">
-        <v>1515</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -12083,7 +12080,7 @@
         <v>579</v>
       </c>
       <c r="B550" t="s">
-        <v>1516</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -12091,7 +12088,7 @@
         <v>580</v>
       </c>
       <c r="B551" t="s">
-        <v>1517</v>
+        <v>1921</v>
       </c>
       <c r="H551">
         <v>1</v>
@@ -12102,7 +12099,7 @@
         <v>581</v>
       </c>
       <c r="B552" t="s">
-        <v>1518</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -12110,7 +12107,7 @@
         <v>582</v>
       </c>
       <c r="B553" t="s">
-        <v>1519</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -12118,7 +12115,7 @@
         <v>583</v>
       </c>
       <c r="B554" t="s">
-        <v>1520</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -12126,7 +12123,7 @@
         <v>584</v>
       </c>
       <c r="B555" t="s">
-        <v>1521</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -12134,7 +12131,7 @@
         <v>585</v>
       </c>
       <c r="B556" t="s">
-        <v>1522</v>
+        <v>1410</v>
       </c>
       <c r="F556">
         <v>1</v>
@@ -12145,7 +12142,7 @@
         <v>586</v>
       </c>
       <c r="B557" t="s">
-        <v>1523</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -12153,7 +12150,7 @@
         <v>587</v>
       </c>
       <c r="B558" t="s">
-        <v>1524</v>
+        <v>1411</v>
       </c>
       <c r="F558">
         <v>1</v>
@@ -12164,7 +12161,7 @@
         <v>588</v>
       </c>
       <c r="B559" t="s">
-        <v>1525</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -12172,7 +12169,7 @@
         <v>589</v>
       </c>
       <c r="B560" t="s">
-        <v>1526</v>
+        <v>1762</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -12189,7 +12186,7 @@
         <v>590</v>
       </c>
       <c r="B561" t="s">
-        <v>1527</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -12197,7 +12194,7 @@
         <v>591</v>
       </c>
       <c r="B562" t="s">
-        <v>1528</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -12205,7 +12202,7 @@
         <v>592</v>
       </c>
       <c r="B563" t="s">
-        <v>1529</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -12213,7 +12210,7 @@
         <v>593</v>
       </c>
       <c r="B564" t="s">
-        <v>1530</v>
+        <v>1900</v>
       </c>
       <c r="C564">
         <v>1</v>
@@ -12224,7 +12221,7 @@
         <v>594</v>
       </c>
       <c r="B565" t="s">
-        <v>1531</v>
+        <v>1414</v>
       </c>
       <c r="F565">
         <v>1</v>
@@ -12243,7 +12240,7 @@
         <v>596</v>
       </c>
       <c r="B567" t="s">
-        <v>1532</v>
+        <v>1765</v>
       </c>
       <c r="F567">
         <v>1</v>
@@ -12254,7 +12251,7 @@
         <v>597</v>
       </c>
       <c r="B568" t="s">
-        <v>1533</v>
+        <v>1766</v>
       </c>
       <c r="F568">
         <v>1</v>
@@ -12265,7 +12262,7 @@
         <v>598</v>
       </c>
       <c r="B569" t="s">
-        <v>1534</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -12273,7 +12270,7 @@
         <v>599</v>
       </c>
       <c r="B570" t="s">
-        <v>1535</v>
+        <v>1415</v>
       </c>
       <c r="F570">
         <v>1</v>
@@ -12284,7 +12281,7 @@
         <v>600</v>
       </c>
       <c r="B571" t="s">
-        <v>1536</v>
+        <v>1416</v>
       </c>
       <c r="F571">
         <v>1</v>
@@ -12295,7 +12292,7 @@
         <v>601</v>
       </c>
       <c r="B572" t="s">
-        <v>1537</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -12303,7 +12300,7 @@
         <v>602</v>
       </c>
       <c r="B573" t="s">
-        <v>1538</v>
+        <v>1768</v>
       </c>
       <c r="F573">
         <v>1</v>
@@ -12314,7 +12311,7 @@
         <v>603</v>
       </c>
       <c r="B574" t="s">
-        <v>1539</v>
+        <v>1769</v>
       </c>
       <c r="F574">
         <v>1</v>
@@ -12325,7 +12322,7 @@
         <v>604</v>
       </c>
       <c r="B575" t="s">
-        <v>1540</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -12333,7 +12330,7 @@
         <v>605</v>
       </c>
       <c r="B576" t="s">
-        <v>1541</v>
+        <v>1417</v>
       </c>
       <c r="F576">
         <v>1</v>
@@ -12347,7 +12344,7 @@
         <v>606</v>
       </c>
       <c r="B577" t="s">
-        <v>1542</v>
+        <v>1418</v>
       </c>
       <c r="D577">
         <v>1</v>
@@ -12361,7 +12358,7 @@
         <v>607</v>
       </c>
       <c r="B578" t="s">
-        <v>1543</v>
+        <v>1419</v>
       </c>
       <c r="F578">
         <v>1</v>
@@ -12372,7 +12369,7 @@
         <v>608</v>
       </c>
       <c r="B579" t="s">
-        <v>1544</v>
+        <v>1420</v>
       </c>
       <c r="F579">
         <v>1</v>
@@ -12383,7 +12380,7 @@
         <v>609</v>
       </c>
       <c r="B580" t="s">
-        <v>1506</v>
+        <v>1405</v>
       </c>
       <c r="F580">
         <v>1</v>
@@ -12394,7 +12391,7 @@
         <v>610</v>
       </c>
       <c r="B581" t="s">
-        <v>1545</v>
+        <v>1421</v>
       </c>
       <c r="D581">
         <v>1</v>
@@ -12405,7 +12402,7 @@
         <v>611</v>
       </c>
       <c r="B582" t="s">
-        <v>1546</v>
+        <v>1771</v>
       </c>
       <c r="F582">
         <v>1</v>
@@ -12416,7 +12413,7 @@
         <v>612</v>
       </c>
       <c r="B583" t="s">
-        <v>1547</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -12424,7 +12421,7 @@
         <v>613</v>
       </c>
       <c r="B584" t="s">
-        <v>1548</v>
+        <v>1423</v>
       </c>
       <c r="F584">
         <v>1</v>
@@ -12435,7 +12432,7 @@
         <v>614</v>
       </c>
       <c r="B585" t="s">
-        <v>1549</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -12443,7 +12440,7 @@
         <v>615</v>
       </c>
       <c r="B586" t="s">
-        <v>1550</v>
+        <v>1425</v>
       </c>
       <c r="F586">
         <v>1</v>
@@ -12454,7 +12451,7 @@
         <v>616</v>
       </c>
       <c r="B587" t="s">
-        <v>1551</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -12462,7 +12459,7 @@
         <v>617</v>
       </c>
       <c r="B588" t="s">
-        <v>1552</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -12470,7 +12467,7 @@
         <v>618</v>
       </c>
       <c r="B589" t="s">
-        <v>1553</v>
+        <v>1427</v>
       </c>
       <c r="F589">
         <v>1</v>
@@ -12481,7 +12478,7 @@
         <v>619</v>
       </c>
       <c r="B590" t="s">
-        <v>1554</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -12489,7 +12486,7 @@
         <v>620</v>
       </c>
       <c r="B591" t="s">
-        <v>1555</v>
+        <v>1773</v>
       </c>
       <c r="F591">
         <v>1</v>
@@ -12500,7 +12497,7 @@
         <v>621</v>
       </c>
       <c r="B592" t="s">
-        <v>1556</v>
+        <v>1923</v>
       </c>
       <c r="D592">
         <v>1</v>
@@ -12511,7 +12508,7 @@
         <v>622</v>
       </c>
       <c r="B593" t="s">
-        <v>1557</v>
+        <v>1774</v>
       </c>
       <c r="F593">
         <v>1</v>
@@ -12522,7 +12519,7 @@
         <v>623</v>
       </c>
       <c r="B594" t="s">
-        <v>1558</v>
+        <v>1775</v>
       </c>
       <c r="D594">
         <v>1</v>
@@ -12536,7 +12533,7 @@
         <v>624</v>
       </c>
       <c r="B595" t="s">
-        <v>1559</v>
+        <v>1428</v>
       </c>
       <c r="F595">
         <v>1</v>
@@ -12547,7 +12544,7 @@
         <v>625</v>
       </c>
       <c r="B596" t="s">
-        <v>1560</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -12555,7 +12552,7 @@
         <v>626</v>
       </c>
       <c r="B597" t="s">
-        <v>1561</v>
+        <v>1925</v>
       </c>
       <c r="F597">
         <v>1</v>
@@ -12566,7 +12563,7 @@
         <v>627</v>
       </c>
       <c r="B598" t="s">
-        <v>1562</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -12837,7 +12834,7 @@
         <v>680</v>
       </c>
       <c r="B651" t="s">
-        <v>1563</v>
+        <v>1429</v>
       </c>
       <c r="C651">
         <v>1</v>
@@ -12854,7 +12851,7 @@
         <v>681</v>
       </c>
       <c r="B652" t="s">
-        <v>1564</v>
+        <v>1430</v>
       </c>
       <c r="C652">
         <v>1</v>
@@ -12868,7 +12865,7 @@
         <v>682</v>
       </c>
       <c r="B653" t="s">
-        <v>1565</v>
+        <v>1776</v>
       </c>
       <c r="H653">
         <v>1</v>
@@ -12879,7 +12876,7 @@
         <v>683</v>
       </c>
       <c r="B654" t="s">
-        <v>1566</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -12887,7 +12884,7 @@
         <v>684</v>
       </c>
       <c r="B655" t="s">
-        <v>1567</v>
+        <v>1777</v>
       </c>
       <c r="F655">
         <v>1</v>
@@ -12898,7 +12895,7 @@
         <v>685</v>
       </c>
       <c r="B656" t="s">
-        <v>1568</v>
+        <v>1778</v>
       </c>
       <c r="F656">
         <v>1</v>
@@ -12909,7 +12906,7 @@
         <v>686</v>
       </c>
       <c r="B657" t="s">
-        <v>1569</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="658" spans="1:10">
@@ -12917,7 +12914,7 @@
         <v>687</v>
       </c>
       <c r="B658" t="s">
-        <v>1570</v>
+        <v>1779</v>
       </c>
       <c r="F658">
         <v>1</v>
@@ -12928,7 +12925,7 @@
         <v>688</v>
       </c>
       <c r="B659" t="s">
-        <v>1571</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="660" spans="1:10">
@@ -12936,7 +12933,7 @@
         <v>689</v>
       </c>
       <c r="B660" t="s">
-        <v>1572</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="661" spans="1:10">
@@ -12944,7 +12941,7 @@
         <v>690</v>
       </c>
       <c r="B661" t="s">
-        <v>1573</v>
+        <v>1782</v>
       </c>
       <c r="H661">
         <v>1</v>
@@ -12955,7 +12952,7 @@
         <v>691</v>
       </c>
       <c r="B662" t="s">
-        <v>1574</v>
+        <v>1783</v>
       </c>
       <c r="F662">
         <v>1</v>
@@ -12966,7 +12963,7 @@
         <v>692</v>
       </c>
       <c r="B663" t="s">
-        <v>1575</v>
+        <v>1928</v>
       </c>
       <c r="F663">
         <v>1</v>
@@ -12977,7 +12974,7 @@
         <v>693</v>
       </c>
       <c r="B664" t="s">
-        <v>1576</v>
+        <v>1784</v>
       </c>
       <c r="F664">
         <v>1</v>
@@ -12988,7 +12985,7 @@
         <v>694</v>
       </c>
       <c r="B665" t="s">
-        <v>1577</v>
+        <v>1785</v>
       </c>
       <c r="C665">
         <v>1</v>
@@ -12999,7 +12996,7 @@
         <v>695</v>
       </c>
       <c r="B666" t="s">
-        <v>1578</v>
+        <v>1786</v>
       </c>
       <c r="F666">
         <v>1</v>
@@ -13010,7 +13007,7 @@
         <v>696</v>
       </c>
       <c r="B667" t="s">
-        <v>1579</v>
+        <v>1787</v>
       </c>
       <c r="J667">
         <v>1</v>
@@ -13021,7 +13018,7 @@
         <v>697</v>
       </c>
       <c r="B668" t="s">
-        <v>1580</v>
+        <v>1929</v>
       </c>
       <c r="G668">
         <v>1</v>
@@ -13035,7 +13032,7 @@
         <v>698</v>
       </c>
       <c r="B669" t="s">
-        <v>1581</v>
+        <v>1788</v>
       </c>
       <c r="C669">
         <v>1</v>
@@ -13046,7 +13043,7 @@
         <v>699</v>
       </c>
       <c r="B670" t="s">
-        <v>1582</v>
+        <v>1432</v>
       </c>
       <c r="F670">
         <v>1</v>
@@ -13060,7 +13057,7 @@
         <v>700</v>
       </c>
       <c r="B671" t="s">
-        <v>1583</v>
+        <v>1789</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -13071,7 +13068,7 @@
         <v>701</v>
       </c>
       <c r="B672" t="s">
-        <v>1584</v>
+        <v>1790</v>
       </c>
       <c r="F672">
         <v>1</v>
@@ -13082,7 +13079,7 @@
         <v>702</v>
       </c>
       <c r="B673" t="s">
-        <v>1585</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="674" spans="1:10">
@@ -13090,7 +13087,7 @@
         <v>703</v>
       </c>
       <c r="B674" t="s">
-        <v>1586</v>
+        <v>1792</v>
       </c>
       <c r="F674">
         <v>1</v>
@@ -13101,7 +13098,7 @@
         <v>704</v>
       </c>
       <c r="B675" t="s">
-        <v>1587</v>
+        <v>1793</v>
       </c>
       <c r="J675">
         <v>1</v>
@@ -13112,7 +13109,7 @@
         <v>705</v>
       </c>
       <c r="B676" t="s">
-        <v>1588</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="677" spans="1:10">
@@ -13120,7 +13117,7 @@
         <v>706</v>
       </c>
       <c r="B677" t="s">
-        <v>1589</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="678" spans="1:10">
@@ -13128,7 +13125,7 @@
         <v>707</v>
       </c>
       <c r="B678" t="s">
-        <v>1590</v>
+        <v>1795</v>
       </c>
       <c r="F678">
         <v>1</v>
@@ -13139,7 +13136,7 @@
         <v>708</v>
       </c>
       <c r="B679" t="s">
-        <v>1591</v>
+        <v>1796</v>
       </c>
       <c r="G679">
         <v>1</v>
@@ -13153,7 +13150,7 @@
         <v>709</v>
       </c>
       <c r="B680" t="s">
-        <v>1592</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="681" spans="1:10">
@@ -13161,7 +13158,7 @@
         <v>710</v>
       </c>
       <c r="B681" t="s">
-        <v>1593</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="682" spans="1:10">
@@ -13169,7 +13166,7 @@
         <v>711</v>
       </c>
       <c r="B682" t="s">
-        <v>1594</v>
+        <v>1799</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -13180,7 +13177,7 @@
         <v>712</v>
       </c>
       <c r="B683" t="s">
-        <v>1595</v>
+        <v>1434</v>
       </c>
       <c r="F683">
         <v>1</v>
@@ -13191,7 +13188,7 @@
         <v>713</v>
       </c>
       <c r="B684" t="s">
-        <v>1596</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="685" spans="1:10">
@@ -13199,7 +13196,7 @@
         <v>714</v>
       </c>
       <c r="B685" t="s">
-        <v>1597</v>
+        <v>1435</v>
       </c>
       <c r="F685">
         <v>1</v>
@@ -13210,7 +13207,7 @@
         <v>715</v>
       </c>
       <c r="B686" t="s">
-        <v>1598</v>
+        <v>1436</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -13224,7 +13221,7 @@
         <v>716</v>
       </c>
       <c r="B687" t="s">
-        <v>1599</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="688" spans="1:10">
@@ -13232,7 +13229,7 @@
         <v>717</v>
       </c>
       <c r="B688" t="s">
-        <v>1600</v>
+        <v>1438</v>
       </c>
       <c r="F688">
         <v>1</v>
@@ -13243,7 +13240,7 @@
         <v>718</v>
       </c>
       <c r="B689" t="s">
-        <v>1601</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -13251,7 +13248,7 @@
         <v>719</v>
       </c>
       <c r="B690" t="s">
-        <v>1602</v>
+        <v>1802</v>
       </c>
       <c r="F690">
         <v>1</v>
@@ -13262,7 +13259,7 @@
         <v>720</v>
       </c>
       <c r="B691" t="s">
-        <v>1603</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -13270,7 +13267,7 @@
         <v>721</v>
       </c>
       <c r="B692" t="s">
-        <v>1604</v>
+        <v>1930</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -13281,7 +13278,7 @@
         <v>722</v>
       </c>
       <c r="B693" t="s">
-        <v>1605</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -13289,7 +13286,7 @@
         <v>723</v>
       </c>
       <c r="B694" t="s">
-        <v>1606</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -13297,7 +13294,7 @@
         <v>724</v>
       </c>
       <c r="B695" t="s">
-        <v>1607</v>
+        <v>1805</v>
       </c>
       <c r="F695">
         <v>1</v>
@@ -13308,7 +13305,7 @@
         <v>725</v>
       </c>
       <c r="B696" t="s">
-        <v>1608</v>
+        <v>1439</v>
       </c>
       <c r="F696">
         <v>1</v>
@@ -13319,7 +13316,7 @@
         <v>726</v>
       </c>
       <c r="B697" t="s">
-        <v>1609</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -13327,7 +13324,7 @@
         <v>727</v>
       </c>
       <c r="B698" t="s">
-        <v>1610</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -13335,7 +13332,7 @@
         <v>728</v>
       </c>
       <c r="B699" t="s">
-        <v>1611</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -13343,7 +13340,7 @@
         <v>729</v>
       </c>
       <c r="B700" t="s">
-        <v>1612</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -13351,7 +13348,7 @@
         <v>730</v>
       </c>
       <c r="B701" t="s">
-        <v>1613</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -13359,7 +13356,7 @@
         <v>731</v>
       </c>
       <c r="B702" t="s">
-        <v>1614</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -13367,7 +13364,7 @@
         <v>732</v>
       </c>
       <c r="B703" t="s">
-        <v>1615</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -13375,7 +13372,7 @@
         <v>733</v>
       </c>
       <c r="B704" t="s">
-        <v>1616</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -13383,7 +13380,7 @@
         <v>734</v>
       </c>
       <c r="B705" t="s">
-        <v>1617</v>
+        <v>1933</v>
       </c>
       <c r="F705">
         <v>1</v>
@@ -13394,7 +13391,7 @@
         <v>735</v>
       </c>
       <c r="B706" t="s">
-        <v>1618</v>
+        <v>1811</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -13405,7 +13402,7 @@
         <v>736</v>
       </c>
       <c r="B707" t="s">
-        <v>1619</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -13413,7 +13410,7 @@
         <v>737</v>
       </c>
       <c r="B708" t="s">
-        <v>1620</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -13421,7 +13418,7 @@
         <v>738</v>
       </c>
       <c r="B709" t="s">
-        <v>1621</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -13429,7 +13426,7 @@
         <v>739</v>
       </c>
       <c r="B710" t="s">
-        <v>1622</v>
+        <v>1442</v>
       </c>
       <c r="F710">
         <v>1</v>
@@ -13440,7 +13437,7 @@
         <v>740</v>
       </c>
       <c r="B711" t="s">
-        <v>1623</v>
+        <v>1934</v>
       </c>
       <c r="F711">
         <v>1</v>
@@ -13451,7 +13448,7 @@
         <v>741</v>
       </c>
       <c r="B712" t="s">
-        <v>1624</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -13459,7 +13456,7 @@
         <v>742</v>
       </c>
       <c r="B713" t="s">
-        <v>1625</v>
+        <v>1935</v>
       </c>
       <c r="F713">
         <v>1</v>
@@ -13470,7 +13467,7 @@
         <v>743</v>
       </c>
       <c r="B714" t="s">
-        <v>1626</v>
+        <v>1815</v>
       </c>
       <c r="D714">
         <v>1</v>
@@ -13484,7 +13481,7 @@
         <v>744</v>
       </c>
       <c r="B715" t="s">
-        <v>1627</v>
+        <v>1444</v>
       </c>
       <c r="G715">
         <v>1</v>
@@ -13498,7 +13495,7 @@
         <v>745</v>
       </c>
       <c r="B716" t="s">
-        <v>1628</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -13506,7 +13503,7 @@
         <v>746</v>
       </c>
       <c r="B717" t="s">
-        <v>1629</v>
+        <v>1446</v>
       </c>
       <c r="G717">
         <v>1</v>
@@ -13520,7 +13517,7 @@
         <v>747</v>
       </c>
       <c r="B718" t="s">
-        <v>1630</v>
+        <v>1816</v>
       </c>
       <c r="H718">
         <v>1</v>
@@ -13531,7 +13528,7 @@
         <v>748</v>
       </c>
       <c r="B719" t="s">
-        <v>1631</v>
+        <v>1447</v>
       </c>
       <c r="C719">
         <v>1</v>
@@ -13542,7 +13539,7 @@
         <v>749</v>
       </c>
       <c r="B720" t="s">
-        <v>1632</v>
+        <v>1817</v>
       </c>
       <c r="H720">
         <v>1</v>
@@ -13553,7 +13550,7 @@
         <v>750</v>
       </c>
       <c r="B721" t="s">
-        <v>1633</v>
+        <v>1818</v>
       </c>
       <c r="D721">
         <v>1</v>
@@ -13570,7 +13567,7 @@
         <v>751</v>
       </c>
       <c r="B722" t="s">
-        <v>1634</v>
+        <v>1819</v>
       </c>
       <c r="F722">
         <v>1</v>
@@ -13581,7 +13578,7 @@
         <v>752</v>
       </c>
       <c r="B723" t="s">
-        <v>1635</v>
+        <v>1448</v>
       </c>
       <c r="H723">
         <v>1</v>
@@ -13592,7 +13589,7 @@
         <v>753</v>
       </c>
       <c r="B724" t="s">
-        <v>1636</v>
+        <v>1449</v>
       </c>
       <c r="F724">
         <v>1</v>
@@ -13606,7 +13603,7 @@
         <v>754</v>
       </c>
       <c r="B725" t="s">
-        <v>1637</v>
+        <v>1450</v>
       </c>
       <c r="C725">
         <v>1</v>
@@ -13620,7 +13617,7 @@
         <v>755</v>
       </c>
       <c r="B726" t="s">
-        <v>1638</v>
+        <v>1451</v>
       </c>
       <c r="F726">
         <v>1</v>
@@ -13631,7 +13628,7 @@
         <v>756</v>
       </c>
       <c r="B727" t="s">
-        <v>1639</v>
+        <v>1820</v>
       </c>
       <c r="F727">
         <v>1</v>
@@ -13642,7 +13639,7 @@
         <v>757</v>
       </c>
       <c r="B728" t="s">
-        <v>1640</v>
+        <v>1452</v>
       </c>
       <c r="F728">
         <v>1</v>
@@ -13656,7 +13653,7 @@
         <v>758</v>
       </c>
       <c r="B729" t="s">
-        <v>1641</v>
+        <v>1453</v>
       </c>
       <c r="F729">
         <v>1</v>
@@ -13670,7 +13667,7 @@
         <v>759</v>
       </c>
       <c r="B730" t="s">
-        <v>1642</v>
+        <v>1454</v>
       </c>
       <c r="F730">
         <v>1</v>
@@ -13681,7 +13678,7 @@
         <v>760</v>
       </c>
       <c r="B731" t="s">
-        <v>1643</v>
+        <v>1821</v>
       </c>
       <c r="F731">
         <v>1</v>
@@ -13692,7 +13689,7 @@
         <v>761</v>
       </c>
       <c r="B732" t="s">
-        <v>1644</v>
+        <v>1455</v>
       </c>
       <c r="G732">
         <v>1</v>
@@ -13706,7 +13703,7 @@
         <v>762</v>
       </c>
       <c r="B733" t="s">
-        <v>1645</v>
+        <v>1822</v>
       </c>
       <c r="F733">
         <v>1</v>
@@ -13717,7 +13714,7 @@
         <v>763</v>
       </c>
       <c r="B734" t="s">
-        <v>1646</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -13725,7 +13722,7 @@
         <v>764</v>
       </c>
       <c r="B735" t="s">
-        <v>1647</v>
+        <v>1823</v>
       </c>
       <c r="F735">
         <v>1</v>
@@ -13736,7 +13733,7 @@
         <v>765</v>
       </c>
       <c r="B736" t="s">
-        <v>1648</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="737" spans="1:10">
@@ -13744,7 +13741,7 @@
         <v>766</v>
       </c>
       <c r="B737" t="s">
-        <v>1649</v>
+        <v>1825</v>
       </c>
       <c r="F737">
         <v>1</v>
@@ -13755,7 +13752,7 @@
         <v>767</v>
       </c>
       <c r="B738" t="s">
-        <v>1650</v>
+        <v>1457</v>
       </c>
       <c r="F738">
         <v>1</v>
@@ -13769,7 +13766,7 @@
         <v>768</v>
       </c>
       <c r="B739" t="s">
-        <v>1651</v>
+        <v>1826</v>
       </c>
       <c r="F739">
         <v>1</v>
@@ -13780,7 +13777,7 @@
         <v>769</v>
       </c>
       <c r="B740" t="s">
-        <v>1652</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="741" spans="1:10">
@@ -13788,7 +13785,7 @@
         <v>770</v>
       </c>
       <c r="B741" t="s">
-        <v>1653</v>
+        <v>1827</v>
       </c>
       <c r="F741">
         <v>1</v>
@@ -13799,7 +13796,7 @@
         <v>771</v>
       </c>
       <c r="B742" t="s">
-        <v>1654</v>
+        <v>1828</v>
       </c>
       <c r="F742">
         <v>1</v>
@@ -13810,7 +13807,7 @@
         <v>772</v>
       </c>
       <c r="B743" t="s">
-        <v>1655</v>
+        <v>1829</v>
       </c>
       <c r="F743">
         <v>1</v>
@@ -13827,7 +13824,7 @@
         <v>773</v>
       </c>
       <c r="B744" t="s">
-        <v>1656</v>
+        <v>1459</v>
       </c>
       <c r="C744">
         <v>1</v>
@@ -13841,7 +13838,7 @@
         <v>774</v>
       </c>
       <c r="B745" t="s">
-        <v>1657</v>
+        <v>1460</v>
       </c>
       <c r="F745">
         <v>1</v>
@@ -13855,7 +13852,7 @@
         <v>775</v>
       </c>
       <c r="B746" t="s">
-        <v>1658</v>
+        <v>1461</v>
       </c>
       <c r="C746">
         <v>1</v>
@@ -13866,7 +13863,7 @@
         <v>776</v>
       </c>
       <c r="B747" t="s">
-        <v>1659</v>
+        <v>1462</v>
       </c>
       <c r="G747">
         <v>1</v>
@@ -13880,7 +13877,7 @@
         <v>777</v>
       </c>
       <c r="B748" t="s">
-        <v>1660</v>
+        <v>1463</v>
       </c>
       <c r="G748">
         <v>1</v>
@@ -13894,7 +13891,7 @@
         <v>778</v>
       </c>
       <c r="B749" t="s">
-        <v>1661</v>
+        <v>1936</v>
       </c>
       <c r="H749">
         <v>1</v>
@@ -13905,7 +13902,7 @@
         <v>779</v>
       </c>
       <c r="B750" t="s">
-        <v>1662</v>
+        <v>1830</v>
       </c>
       <c r="F750">
         <v>1</v>
@@ -13916,7 +13913,7 @@
         <v>780</v>
       </c>
       <c r="B751" t="s">
-        <v>1663</v>
+        <v>1831</v>
       </c>
       <c r="G751">
         <v>1</v>
@@ -13930,7 +13927,7 @@
         <v>781</v>
       </c>
       <c r="B752" t="s">
-        <v>1664</v>
+        <v>1832</v>
       </c>
       <c r="F752">
         <v>1</v>
@@ -13941,7 +13938,7 @@
         <v>782</v>
       </c>
       <c r="B753" t="s">
-        <v>1665</v>
+        <v>1833</v>
       </c>
       <c r="F753">
         <v>1</v>
@@ -13952,7 +13949,7 @@
         <v>783</v>
       </c>
       <c r="B754" t="s">
-        <v>1666</v>
+        <v>1464</v>
       </c>
       <c r="H754">
         <v>1</v>
@@ -13963,7 +13960,7 @@
         <v>784</v>
       </c>
       <c r="B755" t="s">
-        <v>1667</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="756" spans="1:10">
@@ -13971,7 +13968,7 @@
         <v>785</v>
       </c>
       <c r="B756" t="s">
-        <v>1668</v>
+        <v>1466</v>
       </c>
       <c r="F756">
         <v>1</v>
@@ -13982,7 +13979,7 @@
         <v>786</v>
       </c>
       <c r="B757" t="s">
-        <v>1669</v>
+        <v>1467</v>
       </c>
       <c r="C757">
         <v>1</v>
@@ -13999,7 +13996,7 @@
         <v>787</v>
       </c>
       <c r="B758" t="s">
-        <v>1670</v>
+        <v>1468</v>
       </c>
       <c r="C758">
         <v>1</v>
@@ -14013,7 +14010,7 @@
         <v>788</v>
       </c>
       <c r="B759" t="s">
-        <v>1671</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="760" spans="1:10">
@@ -14021,7 +14018,7 @@
         <v>789</v>
       </c>
       <c r="B760" t="s">
-        <v>1672</v>
+        <v>1470</v>
       </c>
       <c r="F760">
         <v>1</v>
@@ -14032,7 +14029,7 @@
         <v>790</v>
       </c>
       <c r="B761" t="s">
-        <v>1673</v>
+        <v>1937</v>
       </c>
       <c r="F761">
         <v>1</v>
@@ -14046,7 +14043,7 @@
         <v>791</v>
       </c>
       <c r="B762" t="s">
-        <v>1674</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="763" spans="1:10">
@@ -14054,7 +14051,7 @@
         <v>792</v>
       </c>
       <c r="B763" t="s">
-        <v>1675</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="764" spans="1:10">
@@ -14062,7 +14059,7 @@
         <v>793</v>
       </c>
       <c r="B764" t="s">
-        <v>1676</v>
+        <v>1472</v>
       </c>
       <c r="D764">
         <v>1</v>
@@ -14073,7 +14070,7 @@
         <v>794</v>
       </c>
       <c r="B765" t="s">
-        <v>1677</v>
+        <v>1835</v>
       </c>
       <c r="F765">
         <v>1</v>
@@ -14087,7 +14084,7 @@
         <v>795</v>
       </c>
       <c r="B766" t="s">
-        <v>1678</v>
+        <v>1473</v>
       </c>
       <c r="D766">
         <v>1</v>
@@ -14104,7 +14101,7 @@
         <v>796</v>
       </c>
       <c r="B767" t="s">
-        <v>1679</v>
+        <v>1474</v>
       </c>
       <c r="D767">
         <v>1</v>
@@ -14118,7 +14115,7 @@
         <v>797</v>
       </c>
       <c r="B768" t="s">
-        <v>1680</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="769" spans="1:10">
@@ -14126,7 +14123,7 @@
         <v>798</v>
       </c>
       <c r="B769" t="s">
-        <v>1681</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="770" spans="1:10">
@@ -14134,7 +14131,7 @@
         <v>799</v>
       </c>
       <c r="B770" t="s">
-        <v>1682</v>
+        <v>1477</v>
       </c>
       <c r="J770">
         <v>1</v>
@@ -14145,7 +14142,7 @@
         <v>800</v>
       </c>
       <c r="B771" t="s">
-        <v>1683</v>
+        <v>1836</v>
       </c>
       <c r="F771">
         <v>1</v>
@@ -14159,7 +14156,7 @@
         <v>801</v>
       </c>
       <c r="B772" t="s">
-        <v>1684</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="773" spans="1:10">
@@ -14167,7 +14164,7 @@
         <v>802</v>
       </c>
       <c r="B773" t="s">
-        <v>1685</v>
+        <v>1479</v>
       </c>
       <c r="C773">
         <v>1</v>
@@ -14178,7 +14175,7 @@
         <v>803</v>
       </c>
       <c r="B774" t="s">
-        <v>1686</v>
+        <v>1837</v>
       </c>
       <c r="C774">
         <v>1</v>
@@ -14189,7 +14186,7 @@
         <v>804</v>
       </c>
       <c r="B775" t="s">
-        <v>1687</v>
+        <v>1480</v>
       </c>
       <c r="C775">
         <v>1</v>
@@ -14206,7 +14203,7 @@
         <v>805</v>
       </c>
       <c r="B776" t="s">
-        <v>1688</v>
+        <v>1938</v>
       </c>
       <c r="G776">
         <v>1</v>
@@ -14220,7 +14217,7 @@
         <v>806</v>
       </c>
       <c r="B777" t="s">
-        <v>1689</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="778" spans="1:10">
@@ -14228,7 +14225,7 @@
         <v>807</v>
       </c>
       <c r="B778" t="s">
-        <v>1690</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="779" spans="1:10">
@@ -14236,7 +14233,7 @@
         <v>808</v>
       </c>
       <c r="B779" t="s">
-        <v>1691</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="780" spans="1:10">
@@ -14244,7 +14241,7 @@
         <v>809</v>
       </c>
       <c r="B780" t="s">
-        <v>1692</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="781" spans="1:10">
@@ -14252,7 +14249,7 @@
         <v>810</v>
       </c>
       <c r="B781" t="s">
-        <v>1693</v>
+        <v>1485</v>
       </c>
       <c r="F781">
         <v>1</v>
@@ -14263,7 +14260,7 @@
         <v>811</v>
       </c>
       <c r="B782" t="s">
-        <v>1694</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="783" spans="1:10">
@@ -14271,7 +14268,7 @@
         <v>812</v>
       </c>
       <c r="B783" t="s">
-        <v>1695</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="784" spans="1:10">
@@ -14279,7 +14276,7 @@
         <v>813</v>
       </c>
       <c r="B784" t="s">
-        <v>1696</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -14287,7 +14284,7 @@
         <v>814</v>
       </c>
       <c r="B785" t="s">
-        <v>1697</v>
+        <v>1489</v>
       </c>
       <c r="F785">
         <v>1</v>
@@ -14298,7 +14295,7 @@
         <v>815</v>
       </c>
       <c r="B786" t="s">
-        <v>1698</v>
+        <v>1490</v>
       </c>
       <c r="F786">
         <v>1</v>
@@ -14309,7 +14306,7 @@
         <v>816</v>
       </c>
       <c r="B787" t="s">
-        <v>1699</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="788" spans="1:6">
@@ -14317,7 +14314,7 @@
         <v>817</v>
       </c>
       <c r="B788" t="s">
-        <v>1700</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="789" spans="1:6">
@@ -14325,7 +14322,7 @@
         <v>818</v>
       </c>
       <c r="B789" t="s">
-        <v>1701</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -14333,7 +14330,7 @@
         <v>819</v>
       </c>
       <c r="B790" t="s">
-        <v>1702</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="791" spans="1:6">
@@ -14341,7 +14338,7 @@
         <v>820</v>
       </c>
       <c r="B791" t="s">
-        <v>1703</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="792" spans="1:6">
@@ -14349,7 +14346,7 @@
         <v>821</v>
       </c>
       <c r="B792" t="s">
-        <v>1704</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -14357,7 +14354,7 @@
         <v>822</v>
       </c>
       <c r="B793" t="s">
-        <v>1705</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -14365,7 +14362,7 @@
         <v>823</v>
       </c>
       <c r="B794" t="s">
-        <v>1706</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="795" spans="1:6">
@@ -14373,7 +14370,7 @@
         <v>824</v>
       </c>
       <c r="B795" t="s">
-        <v>1707</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="796" spans="1:6">
@@ -14381,7 +14378,7 @@
         <v>825</v>
       </c>
       <c r="B796" t="s">
-        <v>1708</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="797" spans="1:6">
@@ -14389,7 +14386,7 @@
         <v>826</v>
       </c>
       <c r="B797" t="s">
-        <v>1709</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="798" spans="1:6">
@@ -14397,7 +14394,7 @@
         <v>827</v>
       </c>
       <c r="B798" t="s">
-        <v>1710</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -14405,7 +14402,7 @@
         <v>828</v>
       </c>
       <c r="B799" t="s">
-        <v>1711</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -14413,7 +14410,7 @@
         <v>829</v>
       </c>
       <c r="B800" t="s">
-        <v>1712</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -14421,7 +14418,7 @@
         <v>830</v>
       </c>
       <c r="B801" t="s">
-        <v>1713</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -14429,7 +14426,7 @@
         <v>831</v>
       </c>
       <c r="B802" t="s">
-        <v>1714</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -14437,7 +14434,7 @@
         <v>832</v>
       </c>
       <c r="B803" t="s">
-        <v>1715</v>
+        <v>1506</v>
       </c>
       <c r="D803">
         <v>1</v>
@@ -14448,7 +14445,7 @@
         <v>833</v>
       </c>
       <c r="B804" t="s">
-        <v>1716</v>
+        <v>1507</v>
       </c>
       <c r="F804">
         <v>1</v>
@@ -14459,7 +14456,7 @@
         <v>834</v>
       </c>
       <c r="B805" t="s">
-        <v>1717</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -14467,7 +14464,7 @@
         <v>835</v>
       </c>
       <c r="B806" t="s">
-        <v>1718</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -14475,7 +14472,7 @@
         <v>836</v>
       </c>
       <c r="B807" t="s">
-        <v>1719</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -14491,7 +14488,7 @@
         <v>838</v>
       </c>
       <c r="B809" t="s">
-        <v>1720</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -14499,7 +14496,7 @@
         <v>839</v>
       </c>
       <c r="B810" t="s">
-        <v>1721</v>
+        <v>1512</v>
       </c>
       <c r="H810">
         <v>1</v>
@@ -14510,7 +14507,7 @@
         <v>840</v>
       </c>
       <c r="B811" t="s">
-        <v>1722</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -14518,7 +14515,7 @@
         <v>841</v>
       </c>
       <c r="B812" t="s">
-        <v>1723</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -14526,7 +14523,7 @@
         <v>842</v>
       </c>
       <c r="B813" t="s">
-        <v>1724</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -14534,7 +14531,7 @@
         <v>843</v>
       </c>
       <c r="B814" t="s">
-        <v>1725</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -14542,7 +14539,7 @@
         <v>844</v>
       </c>
       <c r="B815" t="s">
-        <v>1726</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -14550,7 +14547,7 @@
         <v>845</v>
       </c>
       <c r="B816" t="s">
-        <v>1727</v>
+        <v>1518</v>
       </c>
       <c r="D816">
         <v>1</v>
@@ -14564,7 +14561,7 @@
         <v>846</v>
       </c>
       <c r="B817" t="s">
-        <v>1728</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -14572,7 +14569,7 @@
         <v>847</v>
       </c>
       <c r="B818" t="s">
-        <v>1729</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -14580,7 +14577,7 @@
         <v>848</v>
       </c>
       <c r="B819" t="s">
-        <v>1730</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="820" spans="1:6">
@@ -14588,7 +14585,7 @@
         <v>849</v>
       </c>
       <c r="B820" t="s">
-        <v>1731</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -14596,7 +14593,7 @@
         <v>850</v>
       </c>
       <c r="B821" t="s">
-        <v>1732</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="822" spans="1:6">
@@ -14604,7 +14601,7 @@
         <v>851</v>
       </c>
       <c r="B822" t="s">
-        <v>1733</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="823" spans="1:6">
@@ -14612,7 +14609,7 @@
         <v>852</v>
       </c>
       <c r="B823" t="s">
-        <v>1734</v>
+        <v>1522</v>
       </c>
       <c r="F823">
         <v>1</v>
@@ -14623,7 +14620,7 @@
         <v>853</v>
       </c>
       <c r="B824" t="s">
-        <v>1735</v>
+        <v>1523</v>
       </c>
       <c r="F824">
         <v>1</v>
@@ -14634,7 +14631,7 @@
         <v>854</v>
       </c>
       <c r="B825" t="s">
-        <v>1736</v>
+        <v>1524</v>
       </c>
       <c r="F825">
         <v>1</v>
@@ -14645,7 +14642,7 @@
         <v>855</v>
       </c>
       <c r="B826" t="s">
-        <v>1737</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -14653,7 +14650,7 @@
         <v>856</v>
       </c>
       <c r="B827" t="s">
-        <v>1738</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -14661,7 +14658,7 @@
         <v>857</v>
       </c>
       <c r="B828" t="s">
-        <v>1739</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -14669,7 +14666,7 @@
         <v>858</v>
       </c>
       <c r="B829" t="s">
-        <v>1740</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -14677,7 +14674,7 @@
         <v>859</v>
       </c>
       <c r="B830" t="s">
-        <v>1741</v>
+        <v>1528</v>
       </c>
       <c r="F830">
         <v>1</v>
@@ -14688,7 +14685,7 @@
         <v>860</v>
       </c>
       <c r="B831" t="s">
-        <v>1742</v>
+        <v>1529</v>
       </c>
       <c r="F831">
         <v>1</v>
@@ -14699,7 +14696,7 @@
         <v>861</v>
       </c>
       <c r="B832" t="s">
-        <v>1757</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -14707,7 +14704,7 @@
         <v>862</v>
       </c>
       <c r="B833" t="s">
-        <v>1758</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -14715,7 +14712,7 @@
         <v>863</v>
       </c>
       <c r="B834" t="s">
-        <v>1743</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -14723,7 +14720,7 @@
         <v>864</v>
       </c>
       <c r="B835" t="s">
-        <v>1744</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -14731,7 +14728,7 @@
         <v>865</v>
       </c>
       <c r="B836" t="s">
-        <v>1745</v>
+        <v>1844</v>
       </c>
       <c r="F836">
         <v>1</v>
@@ -14742,7 +14739,7 @@
         <v>866</v>
       </c>
       <c r="B837" t="s">
-        <v>1746</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -14750,7 +14747,7 @@
         <v>867</v>
       </c>
       <c r="B838" t="s">
-        <v>1747</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -14758,7 +14755,7 @@
         <v>868</v>
       </c>
       <c r="B839" t="s">
-        <v>1748</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="840" spans="1:6">
@@ -14766,7 +14763,7 @@
         <v>869</v>
       </c>
       <c r="B840" t="s">
-        <v>1749</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="841" spans="1:6">
@@ -14774,7 +14771,7 @@
         <v>870</v>
       </c>
       <c r="B841" t="s">
-        <v>1750</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -14782,7 +14779,7 @@
         <v>871</v>
       </c>
       <c r="B842" t="s">
-        <v>1751</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -14790,7 +14787,7 @@
         <v>872</v>
       </c>
       <c r="B843" t="s">
-        <v>1752</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="844" spans="1:6">
@@ -14798,7 +14795,7 @@
         <v>873</v>
       </c>
       <c r="B844" t="s">
-        <v>1753</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="845" spans="1:6">
@@ -14806,7 +14803,7 @@
         <v>874</v>
       </c>
       <c r="B845" t="s">
-        <v>1754</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="846" spans="1:6">
@@ -14814,7 +14811,7 @@
         <v>875</v>
       </c>
       <c r="B846" t="s">
-        <v>1755</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="847" spans="1:6">
@@ -14822,7 +14819,7 @@
         <v>876</v>
       </c>
       <c r="B847" t="s">
-        <v>1756</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="848" spans="1:6">
@@ -14830,7 +14827,7 @@
         <v>877</v>
       </c>
       <c r="B848" t="s">
-        <v>1759</v>
+        <v>1541</v>
       </c>
       <c r="F848">
         <v>1</v>
@@ -14841,7 +14838,7 @@
         <v>878</v>
       </c>
       <c r="B849" t="s">
-        <v>1760</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="850" spans="1:6">
@@ -14849,7 +14846,7 @@
         <v>879</v>
       </c>
       <c r="B850" t="s">
-        <v>1761</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="851" spans="1:6">
@@ -14857,7 +14854,7 @@
         <v>880</v>
       </c>
       <c r="B851" t="s">
-        <v>1762</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="852" spans="1:6">
@@ -14865,7 +14862,7 @@
         <v>881</v>
       </c>
       <c r="B852" t="s">
-        <v>1763</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="853" spans="1:6">
@@ -14873,7 +14870,7 @@
         <v>882</v>
       </c>
       <c r="B853" t="s">
-        <v>1764</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="854" spans="1:6">
@@ -14881,7 +14878,7 @@
         <v>883</v>
       </c>
       <c r="B854" t="s">
-        <v>1765</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -14889,7 +14886,7 @@
         <v>884</v>
       </c>
       <c r="B855" t="s">
-        <v>1766</v>
+        <v>1548</v>
       </c>
       <c r="F855">
         <v>1</v>
@@ -14900,7 +14897,7 @@
         <v>885</v>
       </c>
       <c r="B856" t="s">
-        <v>1767</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="857" spans="1:6">
@@ -14908,7 +14905,7 @@
         <v>886</v>
       </c>
       <c r="B857" t="s">
-        <v>1768</v>
+        <v>1550</v>
       </c>
       <c r="F857">
         <v>1</v>
@@ -14919,7 +14916,7 @@
         <v>887</v>
       </c>
       <c r="B858" t="s">
-        <v>1769</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="859" spans="1:6">
@@ -14927,7 +14924,7 @@
         <v>888</v>
       </c>
       <c r="B859" t="s">
-        <v>1770</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="860" spans="1:6">
@@ -14935,7 +14932,7 @@
         <v>889</v>
       </c>
       <c r="B860" t="s">
-        <v>1771</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -14943,7 +14940,7 @@
         <v>890</v>
       </c>
       <c r="B861" t="s">
-        <v>1772</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -14951,7 +14948,7 @@
         <v>891</v>
       </c>
       <c r="B862" t="s">
-        <v>1773</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -14959,7 +14956,7 @@
         <v>892</v>
       </c>
       <c r="B863" t="s">
-        <v>1774</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -14967,7 +14964,7 @@
         <v>893</v>
       </c>
       <c r="B864" t="s">
-        <v>1775</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -14975,7 +14972,7 @@
         <v>894</v>
       </c>
       <c r="B865" t="s">
-        <v>1776</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -14983,7 +14980,7 @@
         <v>895</v>
       </c>
       <c r="B866" t="s">
-        <v>1777</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -14991,7 +14988,7 @@
         <v>896</v>
       </c>
       <c r="B867" t="s">
-        <v>1778</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -14999,7 +14996,7 @@
         <v>897</v>
       </c>
       <c r="B868" t="s">
-        <v>1779</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -15007,7 +15004,7 @@
         <v>898</v>
       </c>
       <c r="B869" t="s">
-        <v>1780</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="870" spans="1:6">
@@ -15015,7 +15012,7 @@
         <v>899</v>
       </c>
       <c r="B870" t="s">
-        <v>1781</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -15023,7 +15020,7 @@
         <v>900</v>
       </c>
       <c r="B871" t="s">
-        <v>1782</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="872" spans="1:6">
@@ -15031,7 +15028,7 @@
         <v>901</v>
       </c>
       <c r="B872" t="s">
-        <v>1783</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="873" spans="1:6">
@@ -15039,7 +15036,7 @@
         <v>902</v>
       </c>
       <c r="B873" t="s">
-        <v>1784</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="874" spans="1:6">
@@ -15047,7 +15044,7 @@
         <v>903</v>
       </c>
       <c r="B874" t="s">
-        <v>1785</v>
+        <v>1847</v>
       </c>
       <c r="F874">
         <v>1</v>
@@ -15058,7 +15055,7 @@
         <v>904</v>
       </c>
       <c r="B875" t="s">
-        <v>1786</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="876" spans="1:6">
@@ -15066,7 +15063,7 @@
         <v>905</v>
       </c>
       <c r="B876" t="s">
-        <v>1787</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="877" spans="1:6">
@@ -15074,7 +15071,7 @@
         <v>906</v>
       </c>
       <c r="B877" t="s">
-        <v>1788</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="878" spans="1:6">
@@ -15082,7 +15079,7 @@
         <v>907</v>
       </c>
       <c r="B878" t="s">
-        <v>1789</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="879" spans="1:6">
@@ -15090,7 +15087,7 @@
         <v>908</v>
       </c>
       <c r="B879" t="s">
-        <v>1790</v>
+        <v>1848</v>
       </c>
       <c r="F879">
         <v>1</v>
@@ -15101,7 +15098,7 @@
         <v>909</v>
       </c>
       <c r="B880" t="s">
-        <v>1791</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -15109,7 +15106,7 @@
         <v>910</v>
       </c>
       <c r="B881" t="s">
-        <v>1792</v>
+        <v>1849</v>
       </c>
       <c r="F881">
         <v>1</v>
@@ -15120,7 +15117,7 @@
         <v>911</v>
       </c>
       <c r="B882" t="s">
-        <v>1793</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="883" spans="1:6">
@@ -15128,7 +15125,7 @@
         <v>912</v>
       </c>
       <c r="B883" t="s">
-        <v>1794</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="884" spans="1:6">
@@ -15136,7 +15133,7 @@
         <v>913</v>
       </c>
       <c r="B884" t="s">
-        <v>1795</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="885" spans="1:6">
@@ -15144,7 +15141,7 @@
         <v>914</v>
       </c>
       <c r="B885" t="s">
-        <v>1796</v>
+        <v>1574</v>
       </c>
       <c r="F885">
         <v>1</v>
@@ -15155,7 +15152,7 @@
         <v>915</v>
       </c>
       <c r="B886" t="s">
-        <v>1797</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="887" spans="1:6">
@@ -15163,7 +15160,7 @@
         <v>916</v>
       </c>
       <c r="B887" t="s">
-        <v>1798</v>
+        <v>1851</v>
       </c>
       <c r="F887">
         <v>1</v>
@@ -15174,7 +15171,7 @@
         <v>917</v>
       </c>
       <c r="B888" t="s">
-        <v>1799</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="889" spans="1:6">
@@ -15182,7 +15179,7 @@
         <v>918</v>
       </c>
       <c r="B889" t="s">
-        <v>1800</v>
+        <v>1577</v>
       </c>
       <c r="F889">
         <v>1</v>
@@ -15193,7 +15190,7 @@
         <v>919</v>
       </c>
       <c r="B890" t="s">
-        <v>1801</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -15201,7 +15198,7 @@
         <v>920</v>
       </c>
       <c r="B891" t="s">
-        <v>1802</v>
+        <v>1853</v>
       </c>
       <c r="F891">
         <v>1</v>
@@ -15212,7 +15209,7 @@
         <v>921</v>
       </c>
       <c r="B892" t="s">
-        <v>1803</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -15220,7 +15217,7 @@
         <v>922</v>
       </c>
       <c r="B893" t="s">
-        <v>1804</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -15228,7 +15225,7 @@
         <v>923</v>
       </c>
       <c r="B894" t="s">
-        <v>1805</v>
+        <v>1855</v>
       </c>
       <c r="F894">
         <v>1</v>
@@ -15239,7 +15236,7 @@
         <v>924</v>
       </c>
       <c r="B895" t="s">
-        <v>1806</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -15247,7 +15244,7 @@
         <v>925</v>
       </c>
       <c r="B896" t="s">
-        <v>1807</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -15255,7 +15252,7 @@
         <v>926</v>
       </c>
       <c r="B897" t="s">
-        <v>1808</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -15263,7 +15260,7 @@
         <v>927</v>
       </c>
       <c r="B898" t="s">
-        <v>1809</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -15271,7 +15268,7 @@
         <v>928</v>
       </c>
       <c r="B899" t="s">
-        <v>1810</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -15279,7 +15276,7 @@
         <v>929</v>
       </c>
       <c r="B900" t="s">
-        <v>1811</v>
+        <v>1859</v>
       </c>
       <c r="F900">
         <v>1</v>
@@ -15290,7 +15287,7 @@
         <v>930</v>
       </c>
       <c r="B901" t="s">
-        <v>1812</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="902" spans="1:6">
@@ -15298,7 +15295,7 @@
         <v>931</v>
       </c>
       <c r="B902" t="s">
-        <v>1813</v>
+        <v>1860</v>
       </c>
       <c r="F902">
         <v>1</v>
@@ -15309,7 +15306,7 @@
         <v>932</v>
       </c>
       <c r="B903" t="s">
-        <v>1814</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="904" spans="1:6">
@@ -15317,7 +15314,7 @@
         <v>933</v>
       </c>
       <c r="B904" t="s">
-        <v>1815</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="905" spans="1:6">
@@ -15325,7 +15322,7 @@
         <v>934</v>
       </c>
       <c r="B905" t="s">
-        <v>1816</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="906" spans="1:6">
@@ -15333,7 +15330,7 @@
         <v>935</v>
       </c>
       <c r="B906" t="s">
-        <v>1817</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="907" spans="1:6">
@@ -15341,7 +15338,7 @@
         <v>936</v>
       </c>
       <c r="B907" t="s">
-        <v>1818</v>
+        <v>1861</v>
       </c>
       <c r="F907">
         <v>1</v>
@@ -15352,7 +15349,7 @@
         <v>937</v>
       </c>
       <c r="B908" t="s">
-        <v>1819</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="909" spans="1:6">
@@ -15360,7 +15357,7 @@
         <v>938</v>
       </c>
       <c r="B909" t="s">
-        <v>1850</v>
+        <v>1614</v>
       </c>
       <c r="F909">
         <v>1</v>
@@ -15371,7 +15368,7 @@
         <v>939</v>
       </c>
       <c r="B910" t="s">
-        <v>1849</v>
+        <v>1613</v>
       </c>
       <c r="F910">
         <v>1</v>
@@ -15382,7 +15379,7 @@
         <v>940</v>
       </c>
       <c r="B911" t="s">
-        <v>1848</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="912" spans="1:6">
@@ -15390,7 +15387,7 @@
         <v>941</v>
       </c>
       <c r="B912" t="s">
-        <v>1847</v>
+        <v>1611</v>
       </c>
       <c r="F912">
         <v>2</v>
@@ -15401,7 +15398,7 @@
         <v>942</v>
       </c>
       <c r="B913" t="s">
-        <v>1846</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -15409,7 +15406,7 @@
         <v>943</v>
       </c>
       <c r="B914" t="s">
-        <v>1845</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -15417,7 +15414,7 @@
         <v>944</v>
       </c>
       <c r="B915" t="s">
-        <v>1844</v>
+        <v>1862</v>
       </c>
       <c r="F915">
         <v>2</v>
@@ -15428,7 +15425,7 @@
         <v>945</v>
       </c>
       <c r="B916" t="s">
-        <v>1843</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="917" spans="1:6">
@@ -15436,7 +15433,7 @@
         <v>946</v>
       </c>
       <c r="B917" t="s">
-        <v>1842</v>
+        <v>1939</v>
       </c>
       <c r="F917">
         <v>1</v>
@@ -15447,7 +15444,7 @@
         <v>947</v>
       </c>
       <c r="B918" t="s">
-        <v>1841</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -15455,7 +15452,7 @@
         <v>948</v>
       </c>
       <c r="B919" t="s">
-        <v>1840</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="920" spans="1:6">
@@ -15463,7 +15460,7 @@
         <v>949</v>
       </c>
       <c r="B920" t="s">
-        <v>1824</v>
+        <v>1591</v>
       </c>
       <c r="F920">
         <v>1</v>
@@ -15474,7 +15471,7 @@
         <v>950</v>
       </c>
       <c r="B921" t="s">
-        <v>1839</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -15482,7 +15479,7 @@
         <v>951</v>
       </c>
       <c r="B922" t="s">
-        <v>1838</v>
+        <v>1604</v>
       </c>
       <c r="F922">
         <v>1</v>
@@ -15493,7 +15490,7 @@
         <v>952</v>
       </c>
       <c r="B923" t="s">
-        <v>1837</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -15501,7 +15498,7 @@
         <v>953</v>
       </c>
       <c r="B924" t="s">
-        <v>1836</v>
+        <v>1602</v>
       </c>
       <c r="F924">
         <v>2</v>
@@ -15512,7 +15509,7 @@
         <v>954</v>
       </c>
       <c r="B925" t="s">
-        <v>1835</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -15520,7 +15517,7 @@
         <v>955</v>
       </c>
       <c r="B926" t="s">
-        <v>1834</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -15528,7 +15525,7 @@
         <v>956</v>
       </c>
       <c r="B927" t="s">
-        <v>1833</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -15536,7 +15533,7 @@
         <v>957</v>
       </c>
       <c r="B928" t="s">
-        <v>1832</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -15544,7 +15541,7 @@
         <v>958</v>
       </c>
       <c r="B929" t="s">
-        <v>1831</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -15552,7 +15549,7 @@
         <v>959</v>
       </c>
       <c r="B930" t="s">
-        <v>1830</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -15560,7 +15557,7 @@
         <v>960</v>
       </c>
       <c r="B931" t="s">
-        <v>1829</v>
+        <v>1595</v>
       </c>
       <c r="F931">
         <v>1</v>
@@ -15571,7 +15568,7 @@
         <v>961</v>
       </c>
       <c r="B932" t="s">
-        <v>1828</v>
+        <v>1594</v>
       </c>
       <c r="F932">
         <v>1</v>
@@ -15582,7 +15579,7 @@
         <v>962</v>
       </c>
       <c r="B933" t="s">
-        <v>1827</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="934" spans="1:6">
@@ -15590,7 +15587,7 @@
         <v>963</v>
       </c>
       <c r="B934" t="s">
-        <v>1826</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="935" spans="1:6">
@@ -15598,7 +15595,7 @@
         <v>964</v>
       </c>
       <c r="B935" t="s">
-        <v>1825</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="936" spans="1:6">
@@ -15606,7 +15603,7 @@
         <v>965</v>
       </c>
       <c r="B936" t="s">
-        <v>1824</v>
+        <v>1591</v>
       </c>
       <c r="F936">
         <v>1</v>
@@ -15617,7 +15614,7 @@
         <v>966</v>
       </c>
       <c r="B937" t="s">
-        <v>1823</v>
+        <v>1590</v>
       </c>
       <c r="F937">
         <v>1</v>
@@ -15628,7 +15625,7 @@
         <v>967</v>
       </c>
       <c r="B938" t="s">
-        <v>1822</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="939" spans="1:6">
@@ -15636,7 +15633,7 @@
         <v>968</v>
       </c>
       <c r="B939" t="s">
-        <v>1821</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="940" spans="1:6">
@@ -15644,7 +15641,7 @@
         <v>969</v>
       </c>
       <c r="B940" t="s">
-        <v>1820</v>
+        <v>1587</v>
       </c>
       <c r="F940">
         <v>2</v>
@@ -15655,7 +15652,7 @@
         <v>970</v>
       </c>
       <c r="B941" t="s">
-        <v>1851</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="942" spans="1:6">
@@ -15663,7 +15660,7 @@
         <v>971</v>
       </c>
       <c r="B942" t="s">
-        <v>1852</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="943" spans="1:6">
@@ -15671,7 +15668,7 @@
         <v>972</v>
       </c>
       <c r="B943" t="s">
-        <v>1853</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="944" spans="1:6">
@@ -15679,7 +15676,7 @@
         <v>973</v>
       </c>
       <c r="B944" t="s">
-        <v>1854</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="945" spans="1:6">
@@ -15687,7 +15684,7 @@
         <v>974</v>
       </c>
       <c r="B945" t="s">
-        <v>1855</v>
+        <v>1617</v>
       </c>
       <c r="F945">
         <v>1</v>
@@ -15698,7 +15695,7 @@
         <v>975</v>
       </c>
       <c r="B946" t="s">
-        <v>1856</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="947" spans="1:6">
@@ -15706,7 +15703,7 @@
         <v>976</v>
       </c>
       <c r="B947" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="948" spans="1:6">
@@ -15714,7 +15711,7 @@
         <v>977</v>
       </c>
       <c r="B948" t="s">
-        <v>1858</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="949" spans="1:6">
@@ -15722,7 +15719,7 @@
         <v>978</v>
       </c>
       <c r="B949" t="s">
-        <v>1859</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="950" spans="1:6">
@@ -15730,7 +15727,7 @@
         <v>979</v>
       </c>
       <c r="B950" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="F950">
         <v>1</v>
@@ -15741,7 +15738,7 @@
         <v>980</v>
       </c>
       <c r="B951" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="952" spans="1:6">
@@ -15749,7 +15746,7 @@
         <v>981</v>
       </c>
       <c r="B952" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="953" spans="1:6">
@@ -15757,7 +15754,7 @@
         <v>982</v>
       </c>
       <c r="B953" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -15765,7 +15762,7 @@
         <v>983</v>
       </c>
       <c r="B954" t="s">
-        <v>1864</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -15773,7 +15770,7 @@
         <v>984</v>
       </c>
       <c r="B955" t="s">
-        <v>1865</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -15781,7 +15778,7 @@
         <v>985</v>
       </c>
       <c r="B956" t="s">
-        <v>1866</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -15789,7 +15786,7 @@
         <v>986</v>
       </c>
       <c r="B957" t="s">
-        <v>1867</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -15797,7 +15794,7 @@
         <v>987</v>
       </c>
       <c r="B958" t="s">
-        <v>1868</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -15805,7 +15802,7 @@
         <v>988</v>
       </c>
       <c r="B959" t="s">
-        <v>1869</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -15813,7 +15810,7 @@
         <v>989</v>
       </c>
       <c r="B960" t="s">
-        <v>1870</v>
+        <v>1622</v>
       </c>
       <c r="F960">
         <v>1</v>
@@ -15824,7 +15821,7 @@
         <v>990</v>
       </c>
       <c r="B961" t="s">
-        <v>1871</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -15832,7 +15829,7 @@
         <v>991</v>
       </c>
       <c r="B962" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -15840,7 +15837,7 @@
         <v>992</v>
       </c>
       <c r="B963" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="F963">
         <v>1</v>
@@ -15851,7 +15848,7 @@
         <v>993</v>
       </c>
       <c r="B964" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="965" spans="1:6">
@@ -15859,7 +15856,7 @@
         <v>994</v>
       </c>
       <c r="B965" t="s">
-        <v>1875</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="966" spans="1:6">
@@ -15867,7 +15864,7 @@
         <v>995</v>
       </c>
       <c r="B966" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="967" spans="1:6">
@@ -15875,7 +15872,7 @@
         <v>996</v>
       </c>
       <c r="B967" t="s">
-        <v>1877</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="968" spans="1:6">
@@ -15883,7 +15880,7 @@
         <v>997</v>
       </c>
       <c r="B968" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F968">
         <v>1</v>
@@ -15894,7 +15891,7 @@
         <v>998</v>
       </c>
       <c r="B969" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="F969">
         <v>1</v>
@@ -15905,7 +15902,7 @@
         <v>999</v>
       </c>
       <c r="B970" t="s">
-        <v>1819</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="971" spans="1:6">
@@ -15913,7 +15910,7 @@
         <v>1000</v>
       </c>
       <c r="B971" t="s">
-        <v>1880</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="972" spans="1:6">
@@ -15921,7 +15918,7 @@
         <v>1001</v>
       </c>
       <c r="B972" t="s">
-        <v>1881</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="973" spans="1:6">
@@ -15929,7 +15926,7 @@
         <v>1002</v>
       </c>
       <c r="B973" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="974" spans="1:6">
@@ -15937,7 +15934,7 @@
         <v>1003</v>
       </c>
       <c r="B974" t="s">
-        <v>1883</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="975" spans="1:6">
@@ -15945,7 +15942,7 @@
         <v>1004</v>
       </c>
       <c r="B975" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="976" spans="1:6">
@@ -15953,7 +15950,7 @@
         <v>1005</v>
       </c>
       <c r="B976" t="s">
-        <v>1885</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="977" spans="1:6">
@@ -15961,7 +15958,7 @@
         <v>1006</v>
       </c>
       <c r="B977" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -15969,7 +15966,7 @@
         <v>1007</v>
       </c>
       <c r="B978" t="s">
-        <v>1887</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="979" spans="1:6">
@@ -15977,7 +15974,7 @@
         <v>1008</v>
       </c>
       <c r="B979" t="s">
-        <v>1888</v>
+        <v>1628</v>
       </c>
       <c r="F979">
         <v>2</v>
@@ -15988,7 +15985,7 @@
         <v>1009</v>
       </c>
       <c r="B980" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="F980">
         <v>1</v>
@@ -15999,7 +15996,7 @@
         <v>1010</v>
       </c>
       <c r="B981" t="s">
-        <v>1890</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="982" spans="1:6">
@@ -16007,7 +16004,7 @@
         <v>1011</v>
       </c>
       <c r="B982" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="983" spans="1:6">
@@ -16015,7 +16012,7 @@
         <v>1012</v>
       </c>
       <c r="B983" t="s">
-        <v>1892</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -16023,7 +16020,7 @@
         <v>1013</v>
       </c>
       <c r="B984" t="s">
-        <v>1893</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -16031,7 +16028,7 @@
         <v>1014</v>
       </c>
       <c r="B985" t="s">
-        <v>1420</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -16039,7 +16036,7 @@
         <v>1015</v>
       </c>
       <c r="B986" t="s">
-        <v>1894</v>
+        <v>1631</v>
       </c>
       <c r="F986">
         <v>1</v>
@@ -16050,7 +16047,7 @@
         <v>1016</v>
       </c>
       <c r="B987" t="s">
-        <v>1895</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -16058,7 +16055,7 @@
         <v>1017</v>
       </c>
       <c r="B988" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -16066,7 +16063,7 @@
         <v>1018</v>
       </c>
       <c r="B989" t="s">
-        <v>1897</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -16074,7 +16071,7 @@
         <v>1019</v>
       </c>
       <c r="B990" t="s">
-        <v>1898</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -16082,7 +16079,7 @@
         <v>1020</v>
       </c>
       <c r="B991" t="s">
-        <v>1899</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -16090,7 +16087,7 @@
         <v>1021</v>
       </c>
       <c r="B992" t="s">
-        <v>1900</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -16098,7 +16095,7 @@
         <v>1022</v>
       </c>
       <c r="B993" t="s">
-        <v>1901</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -16106,7 +16103,7 @@
         <v>1023</v>
       </c>
       <c r="B994" t="s">
-        <v>1902</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="995" spans="1:6">
@@ -16114,7 +16111,7 @@
         <v>1024</v>
       </c>
       <c r="B995" t="s">
-        <v>1903</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -16122,7 +16119,7 @@
         <v>1025</v>
       </c>
       <c r="B996" t="s">
-        <v>1904</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -16130,7 +16127,7 @@
         <v>1026</v>
       </c>
       <c r="B997" t="s">
-        <v>1905</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -16138,7 +16135,7 @@
         <v>1027</v>
       </c>
       <c r="B998" t="s">
-        <v>1906</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -16146,7 +16143,7 @@
         <v>1028</v>
       </c>
       <c r="B999" t="s">
-        <v>1907</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -16154,7 +16151,7 @@
         <v>1029</v>
       </c>
       <c r="B1000" t="s">
-        <v>1908</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
@@ -16162,7 +16159,7 @@
         <v>1030</v>
       </c>
       <c r="B1001" t="s">
-        <v>1909</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -16170,7 +16167,7 @@
         <v>1031</v>
       </c>
       <c r="B1002" t="s">
-        <v>1910</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1003" spans="1:6">
@@ -16178,7 +16175,7 @@
         <v>1032</v>
       </c>
       <c r="B1003" t="s">
-        <v>1911</v>
+        <v>1644</v>
       </c>
       <c r="F1003">
         <v>1</v>
@@ -16189,7 +16186,7 @@
         <v>1033</v>
       </c>
       <c r="B1004" t="s">
-        <v>1912</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1005" spans="1:6">
@@ -16197,7 +16194,7 @@
         <v>1034</v>
       </c>
       <c r="B1005" t="s">
-        <v>1913</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -16205,7 +16202,7 @@
         <v>1035</v>
       </c>
       <c r="B1006" t="s">
-        <v>1914</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1007" spans="1:6">
@@ -16213,7 +16210,7 @@
         <v>1036</v>
       </c>
       <c r="B1007" t="s">
-        <v>1915</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -16221,7 +16218,7 @@
         <v>1037</v>
       </c>
       <c r="B1008" t="s">
-        <v>1916</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1009" spans="1:6">
@@ -16229,7 +16226,7 @@
         <v>1038</v>
       </c>
       <c r="B1009" t="s">
-        <v>1917</v>
+        <v>1891</v>
       </c>
       <c r="F1009">
         <v>1</v>
@@ -16240,7 +16237,7 @@
         <v>1039</v>
       </c>
       <c r="B1010" t="s">
-        <v>1918</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1011" spans="1:6">
@@ -16248,7 +16245,7 @@
         <v>1040</v>
       </c>
       <c r="B1011" t="s">
-        <v>1919</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -16256,7 +16253,7 @@
         <v>1041</v>
       </c>
       <c r="B1012" t="s">
-        <v>1920</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1013" spans="1:6">
@@ -16264,7 +16261,7 @@
         <v>1042</v>
       </c>
       <c r="B1013" t="s">
-        <v>1921</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1014" spans="1:6">
@@ -16272,7 +16269,7 @@
         <v>1043</v>
       </c>
       <c r="B1014" t="s">
-        <v>1922</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1015" spans="1:6">
@@ -16280,7 +16277,7 @@
         <v>1044</v>
       </c>
       <c r="B1015" t="s">
-        <v>1923</v>
+        <v>1653</v>
       </c>
       <c r="F1015">
         <v>1</v>
@@ -16291,7 +16288,7 @@
         <v>1045</v>
       </c>
       <c r="B1016" t="s">
-        <v>1924</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -16299,7 +16296,7 @@
         <v>1046</v>
       </c>
       <c r="B1017" t="s">
-        <v>1946</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -16307,7 +16304,7 @@
         <v>1047</v>
       </c>
       <c r="B1018" t="s">
-        <v>1925</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1019" spans="1:6">
@@ -16315,7 +16312,7 @@
         <v>1048</v>
       </c>
       <c r="B1019" t="s">
-        <v>1926</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -16323,7 +16320,7 @@
         <v>1049</v>
       </c>
       <c r="B1020" t="s">
-        <v>1927</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1021" spans="1:6">
@@ -16331,7 +16328,7 @@
         <v>1050</v>
       </c>
       <c r="B1021" t="s">
-        <v>1928</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -16339,7 +16336,7 @@
         <v>1051</v>
       </c>
       <c r="B1022" t="s">
-        <v>1929</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1023" spans="1:6">
@@ -16347,7 +16344,7 @@
         <v>1052</v>
       </c>
       <c r="B1023" t="s">
-        <v>1930</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -16355,7 +16352,7 @@
         <v>1053</v>
       </c>
       <c r="B1024" t="s">
-        <v>1931</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -16363,7 +16360,7 @@
         <v>1054</v>
       </c>
       <c r="B1025" t="s">
-        <v>1932</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1026" spans="1:6">
@@ -16371,7 +16368,7 @@
         <v>1055</v>
       </c>
       <c r="B1026" t="s">
-        <v>1933</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1027" spans="1:6">
@@ -16379,7 +16376,7 @@
         <v>1056</v>
       </c>
       <c r="B1027" t="s">
-        <v>1934</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1028" spans="1:6">
@@ -16387,7 +16384,7 @@
         <v>1057</v>
       </c>
       <c r="B1028" t="s">
-        <v>1935</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1029" spans="1:6">
@@ -16395,7 +16392,7 @@
         <v>1058</v>
       </c>
       <c r="B1029" t="s">
-        <v>1936</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1030" spans="1:6">
@@ -16403,7 +16400,7 @@
         <v>1059</v>
       </c>
       <c r="B1030" t="s">
-        <v>1937</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1031" spans="1:6">
@@ -16411,7 +16408,7 @@
         <v>1060</v>
       </c>
       <c r="B1031" t="s">
-        <v>1938</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1032" spans="1:6">
@@ -16419,7 +16416,7 @@
         <v>1061</v>
       </c>
       <c r="B1032" t="s">
-        <v>1939</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1033" spans="1:6">
@@ -16427,7 +16424,7 @@
         <v>1062</v>
       </c>
       <c r="B1033" t="s">
-        <v>1940</v>
+        <v>1665</v>
       </c>
       <c r="F1033">
         <v>1</v>
@@ -16438,7 +16435,7 @@
         <v>1063</v>
       </c>
       <c r="B1034" t="s">
-        <v>1941</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1035" spans="1:6">
@@ -16446,7 +16443,7 @@
         <v>1064</v>
       </c>
       <c r="B1035" t="s">
-        <v>1942</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -16454,7 +16451,7 @@
         <v>1065</v>
       </c>
       <c r="B1036" t="s">
-        <v>1943</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1037" spans="1:6">
@@ -16462,7 +16459,7 @@
         <v>1066</v>
       </c>
       <c r="B1037" t="s">
-        <v>1944</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1038" spans="1:6">
@@ -16470,7 +16467,7 @@
         <v>1067</v>
       </c>
       <c r="B1038" t="s">
-        <v>1945</v>
+        <v>1669</v>
       </c>
     </row>
   </sheetData>
